--- a/data/IN/outputs/590034/t_set_test.xlsx
+++ b/data/IN/outputs/590034/t_set_test.xlsx
@@ -1056,10 +1056,14 @@
   <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:Y102"/>
+      <selection activeCell="X106" sqref="X106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7812,7 +7816,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:W101">
+  <conditionalFormatting sqref="Y2:Y101">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:X101">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/data/IN/outputs/590034/t_set_test.xlsx
+++ b/data/IN/outputs/590034/t_set_test.xlsx
@@ -32,18 +32,624 @@
     <t>final</t>
   </si>
   <si>
+    <t>committee_vote</t>
+  </si>
+  <si>
+    <t>committee_consistency</t>
+  </si>
+  <si>
+    <t>p_yes_rev_cs</t>
+  </si>
+  <si>
+    <t>id5506</t>
+  </si>
+  <si>
+    <t>id5529</t>
+  </si>
+  <si>
+    <t>id12223</t>
+  </si>
+  <si>
+    <t>id5493</t>
+  </si>
+  <si>
+    <t>id14189</t>
+  </si>
+  <si>
+    <t>id5494</t>
+  </si>
+  <si>
+    <t>id5489</t>
+  </si>
+  <si>
+    <t>id5553</t>
+  </si>
+  <si>
+    <t>id5482</t>
+  </si>
+  <si>
+    <t>id5532</t>
+  </si>
+  <si>
+    <t>id14765</t>
+  </si>
+  <si>
+    <t>id5516</t>
+  </si>
+  <si>
+    <t>id14192</t>
+  </si>
+  <si>
+    <t>id5492</t>
+  </si>
+  <si>
+    <t>id14766</t>
+  </si>
+  <si>
+    <t>id5570</t>
+  </si>
+  <si>
+    <t>id14438</t>
+  </si>
+  <si>
+    <t>id5546</t>
+  </si>
+  <si>
+    <t>id5552</t>
+  </si>
+  <si>
+    <t>id5519</t>
+  </si>
+  <si>
+    <t>id11394</t>
+  </si>
+  <si>
+    <t>id10569</t>
+  </si>
+  <si>
+    <t>id5539</t>
+  </si>
+  <si>
+    <t>id14761</t>
+  </si>
+  <si>
+    <t>id5571</t>
+  </si>
+  <si>
+    <t>id5515</t>
+  </si>
+  <si>
+    <t>id5508</t>
+  </si>
+  <si>
+    <t>id5560</t>
+  </si>
+  <si>
+    <t>id5544</t>
+  </si>
+  <si>
+    <t>id10578</t>
+  </si>
+  <si>
+    <t>id10575</t>
+  </si>
+  <si>
+    <t>id5559</t>
+  </si>
+  <si>
+    <t>id5561</t>
+  </si>
+  <si>
+    <t>id5624</t>
+  </si>
+  <si>
+    <t>id5564</t>
+  </si>
+  <si>
+    <t>id5499</t>
+  </si>
+  <si>
+    <t>id14439</t>
+  </si>
+  <si>
+    <t>id10577</t>
+  </si>
+  <si>
+    <t>id5509</t>
+  </si>
+  <si>
+    <t>id5502</t>
+  </si>
+  <si>
+    <t>id5524</t>
+  </si>
+  <si>
+    <t>id14443</t>
+  </si>
+  <si>
+    <t>id5498</t>
+  </si>
+  <si>
+    <t>id10818</t>
+  </si>
+  <si>
+    <t>id5563</t>
+  </si>
+  <si>
+    <t>id10574</t>
+  </si>
+  <si>
+    <t>id14445</t>
+  </si>
+  <si>
+    <t>id5512</t>
+  </si>
+  <si>
+    <t>id5513</t>
+  </si>
+  <si>
+    <t>id5510</t>
+  </si>
+  <si>
+    <t>id14768</t>
+  </si>
+  <si>
+    <t>id14447</t>
+  </si>
+  <si>
+    <t>id5527</t>
+  </si>
+  <si>
+    <t>id5537</t>
+  </si>
+  <si>
+    <t>id14767</t>
+  </si>
+  <si>
+    <t>id14437</t>
+  </si>
+  <si>
+    <t>id5573</t>
+  </si>
+  <si>
+    <t>id5536</t>
+  </si>
+  <si>
+    <t>id10584</t>
+  </si>
+  <si>
+    <t>id14441</t>
+  </si>
+  <si>
+    <t>id5549</t>
+  </si>
+  <si>
+    <t>id10579</t>
+  </si>
+  <si>
+    <t>id5541</t>
+  </si>
+  <si>
+    <t>id14448</t>
+  </si>
+  <si>
+    <t>id5483</t>
+  </si>
+  <si>
+    <t>id5528</t>
+  </si>
+  <si>
+    <t>id10570</t>
+  </si>
+  <si>
+    <t>id10572</t>
+  </si>
+  <si>
+    <t>id14764</t>
+  </si>
+  <si>
+    <t>id10573</t>
+  </si>
+  <si>
+    <t>id5568</t>
+  </si>
+  <si>
+    <t>id5514</t>
+  </si>
+  <si>
+    <t>id10571</t>
+  </si>
+  <si>
+    <t>id11398</t>
+  </si>
+  <si>
+    <t>id10568</t>
+  </si>
+  <si>
+    <t>id11298</t>
+  </si>
+  <si>
+    <t>id5500</t>
+  </si>
+  <si>
+    <t>id5547</t>
+  </si>
+  <si>
+    <t>id5557</t>
+  </si>
+  <si>
+    <t>id5569</t>
+  </si>
+  <si>
+    <t>id14762</t>
+  </si>
+  <si>
+    <t>id14444</t>
+  </si>
+  <si>
+    <t>id10816</t>
+  </si>
+  <si>
+    <t>id10576</t>
+  </si>
+  <si>
+    <t>id5521</t>
+  </si>
+  <si>
+    <t>id5533</t>
+  </si>
+  <si>
+    <t>id14436</t>
+  </si>
+  <si>
+    <t>id5497</t>
+  </si>
+  <si>
+    <t>id11395</t>
+  </si>
+  <si>
+    <t>id11396</t>
+  </si>
+  <si>
+    <t>id5567</t>
+  </si>
+  <si>
+    <t>id14440</t>
+  </si>
+  <si>
+    <t>id5565</t>
+  </si>
+  <si>
+    <t>id5543</t>
+  </si>
+  <si>
+    <t>id5556</t>
+  </si>
+  <si>
+    <t>id5566</t>
+  </si>
+  <si>
+    <t>id14442</t>
+  </si>
+  <si>
+    <t>id14446</t>
+  </si>
+  <si>
+    <t>id5518</t>
+  </si>
+  <si>
+    <t>id14191</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Linda Lawson</t>
+  </si>
+  <si>
+    <t>Earl Harris</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Edmond Soliday</t>
+  </si>
+  <si>
+    <t>Dale DeVon</t>
+  </si>
+  <si>
+    <t>Patrick Bauer</t>
+  </si>
+  <si>
+    <t>David Niezgodski</t>
+  </si>
+  <si>
+    <t>Ryan Dvorak</t>
+  </si>
+  <si>
+    <t>Scott Pelath</t>
+  </si>
+  <si>
+    <t>Charles Moseley</t>
+  </si>
+  <si>
+    <t>Rick Niemeyer</t>
+  </si>
+  <si>
+    <t>Mara Reardon</t>
+  </si>
+  <si>
+    <t>Sharon Negele</t>
+  </si>
+  <si>
+    <t>Vernon Smith</t>
+  </si>
+  <si>
+    <t>Harold Slager</t>
+  </si>
+  <si>
+    <t>Doug Gutwein</t>
+  </si>
+  <si>
+    <t>Timothy Harman</t>
+  </si>
+  <si>
+    <t>David Wolkins</t>
+  </si>
+  <si>
+    <t>Rochelle VanDenburgh</t>
+  </si>
+  <si>
+    <t>Thomas Dermody</t>
+  </si>
+  <si>
+    <t>Timothy Wesco</t>
+  </si>
+  <si>
+    <t>Rebecca Kubacki</t>
+  </si>
+  <si>
+    <t>William Friend</t>
+  </si>
+  <si>
+    <t>Steven Braun</t>
+  </si>
+  <si>
+    <t>Donald Lehe</t>
+  </si>
+  <si>
+    <t>Randy Truitt</t>
+  </si>
+  <si>
+    <t>Sheila Klinker</t>
+  </si>
+  <si>
+    <t>Jeffrey Thompson</t>
+  </si>
+  <si>
+    <t>Kathy Richardson</t>
+  </si>
+  <si>
+    <t>Michael Karickhoff</t>
+  </si>
+  <si>
+    <t>Kevin Mahan</t>
+  </si>
+  <si>
+    <t>Eric Turner</t>
+  </si>
+  <si>
+    <t>Bill Davis</t>
+  </si>
+  <si>
+    <t>Sue Errington</t>
+  </si>
+  <si>
+    <t>Jack Lutz</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin</t>
+  </si>
+  <si>
+    <t>Todd Huston</t>
+  </si>
+  <si>
+    <t>Heath VanNatter</t>
+  </si>
+  <si>
+    <t>Gerald Torr</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald</t>
+  </si>
+  <si>
+    <t>Timothy Brown</t>
+  </si>
+  <si>
+    <t>Alan Morrison</t>
+  </si>
+  <si>
+    <t>Clyde Kersey</t>
+  </si>
+  <si>
+    <t>James Baird</t>
+  </si>
+  <si>
+    <t>Kreg Battles</t>
+  </si>
+  <si>
+    <t>Robert Heaton</t>
+  </si>
+  <si>
+    <t>John Price</t>
+  </si>
+  <si>
+    <t>Timothy Neese</t>
+  </si>
+  <si>
+    <t>Wes Culver</t>
+  </si>
+  <si>
+    <t>Daniel Leonard</t>
+  </si>
+  <si>
+    <t>Dennis Zent</t>
+  </si>
+  <si>
+    <t>Ben Smaltz</t>
+  </si>
+  <si>
+    <t>Robert Cherry</t>
+  </si>
+  <si>
+    <t>Thomas Saunders</t>
+  </si>
+  <si>
+    <t>Cindy Ziemke</t>
+  </si>
+  <si>
+    <t>Richard Hamm</t>
+  </si>
+  <si>
+    <t>Sean Eberhart</t>
+  </si>
+  <si>
+    <t>Charles Burton</t>
+  </si>
+  <si>
+    <t>Milo Smith</t>
+  </si>
+  <si>
+    <t>Peggy Mayfield</t>
+  </si>
+  <si>
+    <t>Matt Pierce</t>
+  </si>
+  <si>
+    <t>Matthew Ubelhor</t>
+  </si>
+  <si>
+    <t>Mark Messmer</t>
+  </si>
+  <si>
+    <t>Thomas Washburne</t>
+  </si>
+  <si>
+    <t>Eric Koch</t>
+  </si>
+  <si>
+    <t>Terry Goodin</t>
+  </si>
+  <si>
+    <t>Randall Frye</t>
+  </si>
+  <si>
+    <t>Judson McMillin</t>
+  </si>
+  <si>
+    <t>Jim Lucas</t>
+  </si>
+  <si>
+    <t>Rhonda Rhoads</t>
+  </si>
+  <si>
+    <t>Steven Stemler</t>
+  </si>
+  <si>
+    <t>Edward Clere</t>
+  </si>
+  <si>
+    <t>Steven Davisson</t>
+  </si>
+  <si>
+    <t>Lloyd Arnold</t>
+  </si>
+  <si>
+    <t>Ronald Bacon</t>
+  </si>
+  <si>
+    <t>Wendy McNamara</t>
+  </si>
+  <si>
+    <t>Gail Riecken</t>
+  </si>
+  <si>
+    <t>Suzanne Crouch</t>
+  </si>
+  <si>
+    <t>Matthew Lehman</t>
+  </si>
+  <si>
+    <t>Philip GiaQuinta</t>
+  </si>
+  <si>
+    <t>Martin Carbaugh</t>
+  </si>
+  <si>
+    <t>David Ober</t>
+  </si>
+  <si>
+    <t>Kathleen Heuer</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
+  </si>
+  <si>
+    <t>Phyllis Pond</t>
+  </si>
+  <si>
+    <t>Edward DeLaney</t>
+  </si>
+  <si>
+    <t>Christina Hale</t>
+  </si>
+  <si>
+    <t>Brian Bosma</t>
+  </si>
+  <si>
+    <t>Cindy Kirchhofer</t>
+  </si>
+  <si>
+    <t>Mike Speedy</t>
+  </si>
+  <si>
+    <t>Robert Behning</t>
+  </si>
+  <si>
+    <t>Karlee Macer</t>
+  </si>
+  <si>
+    <t>David Frizzell</t>
+  </si>
+  <si>
+    <t>Cherrish Pryor</t>
+  </si>
+  <si>
+    <t>John Bartlett</t>
+  </si>
+  <si>
+    <t>Gregory Porter</t>
+  </si>
+  <si>
+    <t>Justin Moed</t>
+  </si>
+  <si>
+    <t>Robin Shackleford</t>
+  </si>
+  <si>
+    <t>Vanessa Summers</t>
+  </si>
+  <si>
+    <t>Dan Forestal</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>t1</t>
   </si>
   <si>
-    <t>committee_vote</t>
-  </si>
-  <si>
-    <t>committee_consistency</t>
-  </si>
-  <si>
-    <t>p_yes_rev_cs</t>
-  </si>
-  <si>
     <t>t2</t>
   </si>
   <si>
@@ -56,304 +662,7 @@
     <t>t5</t>
   </si>
   <si>
-    <t>id5506</t>
-  </si>
-  <si>
-    <t>id5529</t>
-  </si>
-  <si>
-    <t>id12223</t>
-  </si>
-  <si>
-    <t>id5493</t>
-  </si>
-  <si>
-    <t>id14189</t>
-  </si>
-  <si>
-    <t>id5494</t>
-  </si>
-  <si>
-    <t>id5489</t>
-  </si>
-  <si>
-    <t>id5553</t>
-  </si>
-  <si>
-    <t>id5482</t>
-  </si>
-  <si>
-    <t>id5532</t>
-  </si>
-  <si>
-    <t>id14765</t>
-  </si>
-  <si>
-    <t>id5516</t>
-  </si>
-  <si>
-    <t>id14192</t>
-  </si>
-  <si>
-    <t>id5492</t>
-  </si>
-  <si>
-    <t>id14766</t>
-  </si>
-  <si>
-    <t>id5570</t>
-  </si>
-  <si>
-    <t>id14438</t>
-  </si>
-  <si>
-    <t>id5546</t>
-  </si>
-  <si>
-    <t>id5552</t>
-  </si>
-  <si>
-    <t>id5519</t>
-  </si>
-  <si>
-    <t>id11394</t>
-  </si>
-  <si>
-    <t>id10569</t>
-  </si>
-  <si>
-    <t>id5539</t>
-  </si>
-  <si>
-    <t>id14761</t>
-  </si>
-  <si>
-    <t>id5571</t>
-  </si>
-  <si>
-    <t>id5515</t>
-  </si>
-  <si>
-    <t>id5508</t>
-  </si>
-  <si>
-    <t>id5560</t>
-  </si>
-  <si>
-    <t>id5544</t>
-  </si>
-  <si>
-    <t>id10578</t>
-  </si>
-  <si>
-    <t>id10575</t>
-  </si>
-  <si>
-    <t>id5559</t>
-  </si>
-  <si>
-    <t>id5561</t>
-  </si>
-  <si>
-    <t>id5624</t>
-  </si>
-  <si>
-    <t>id5564</t>
-  </si>
-  <si>
-    <t>id5499</t>
-  </si>
-  <si>
-    <t>id14439</t>
-  </si>
-  <si>
-    <t>id10577</t>
-  </si>
-  <si>
-    <t>id5509</t>
-  </si>
-  <si>
-    <t>id5502</t>
-  </si>
-  <si>
-    <t>id5524</t>
-  </si>
-  <si>
-    <t>id14443</t>
-  </si>
-  <si>
-    <t>id5498</t>
-  </si>
-  <si>
-    <t>id10818</t>
-  </si>
-  <si>
-    <t>id5563</t>
-  </si>
-  <si>
-    <t>id10574</t>
-  </si>
-  <si>
-    <t>id14445</t>
-  </si>
-  <si>
-    <t>id5512</t>
-  </si>
-  <si>
-    <t>id5513</t>
-  </si>
-  <si>
-    <t>id5510</t>
-  </si>
-  <si>
-    <t>id14768</t>
-  </si>
-  <si>
-    <t>id14447</t>
-  </si>
-  <si>
-    <t>id5527</t>
-  </si>
-  <si>
-    <t>id5537</t>
-  </si>
-  <si>
-    <t>id14767</t>
-  </si>
-  <si>
-    <t>id14437</t>
-  </si>
-  <si>
-    <t>id5573</t>
-  </si>
-  <si>
-    <t>id5536</t>
-  </si>
-  <si>
-    <t>id10584</t>
-  </si>
-  <si>
-    <t>id14441</t>
-  </si>
-  <si>
-    <t>id5549</t>
-  </si>
-  <si>
-    <t>id10579</t>
-  </si>
-  <si>
-    <t>id5541</t>
-  </si>
-  <si>
-    <t>id14448</t>
-  </si>
-  <si>
-    <t>id5483</t>
-  </si>
-  <si>
-    <t>id5528</t>
-  </si>
-  <si>
-    <t>id10570</t>
-  </si>
-  <si>
-    <t>id10572</t>
-  </si>
-  <si>
-    <t>id14764</t>
-  </si>
-  <si>
-    <t>id10573</t>
-  </si>
-  <si>
-    <t>id5568</t>
-  </si>
-  <si>
-    <t>id5514</t>
-  </si>
-  <si>
-    <t>id10571</t>
-  </si>
-  <si>
-    <t>id11398</t>
-  </si>
-  <si>
-    <t>id10568</t>
-  </si>
-  <si>
-    <t>id11298</t>
-  </si>
-  <si>
-    <t>id5500</t>
-  </si>
-  <si>
-    <t>id5547</t>
-  </si>
-  <si>
-    <t>id5557</t>
-  </si>
-  <si>
-    <t>id5569</t>
-  </si>
-  <si>
-    <t>id14762</t>
-  </si>
-  <si>
-    <t>id14444</t>
-  </si>
-  <si>
-    <t>id10816</t>
-  </si>
-  <si>
-    <t>id10576</t>
-  </si>
-  <si>
-    <t>id5521</t>
-  </si>
-  <si>
-    <t>id5533</t>
-  </si>
-  <si>
-    <t>id14436</t>
-  </si>
-  <si>
-    <t>id5497</t>
-  </si>
-  <si>
-    <t>id11395</t>
-  </si>
-  <si>
-    <t>id11396</t>
-  </si>
-  <si>
-    <t>id5567</t>
-  </si>
-  <si>
-    <t>id14440</t>
-  </si>
-  <si>
-    <t>id5565</t>
-  </si>
-  <si>
-    <t>id5543</t>
-  </si>
-  <si>
-    <t>id5556</t>
-  </si>
-  <si>
-    <t>id5566</t>
-  </si>
-  <si>
-    <t>id14442</t>
-  </si>
-  <si>
-    <t>id14446</t>
-  </si>
-  <si>
-    <t>id5518</t>
-  </si>
-  <si>
-    <t>id14191</t>
+    <t>t6</t>
   </si>
   <si>
     <t>t7</t>
@@ -383,6 +692,9 @@
     <t>t15</t>
   </si>
   <si>
+    <t>t16</t>
+  </si>
+  <si>
     <t>t17</t>
   </si>
   <si>
@@ -390,318 +702,6 @@
   </si>
   <si>
     <t>t18_check</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Linda Lawson</t>
-  </si>
-  <si>
-    <t>Earl Harris</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Edmond Soliday</t>
-  </si>
-  <si>
-    <t>Dale DeVon</t>
-  </si>
-  <si>
-    <t>Patrick Bauer</t>
-  </si>
-  <si>
-    <t>David Niezgodski</t>
-  </si>
-  <si>
-    <t>Ryan Dvorak</t>
-  </si>
-  <si>
-    <t>Scott Pelath</t>
-  </si>
-  <si>
-    <t>Charles Moseley</t>
-  </si>
-  <si>
-    <t>Rick Niemeyer</t>
-  </si>
-  <si>
-    <t>Mara Reardon</t>
-  </si>
-  <si>
-    <t>Sharon Negele</t>
-  </si>
-  <si>
-    <t>Vernon Smith</t>
-  </si>
-  <si>
-    <t>Harold Slager</t>
-  </si>
-  <si>
-    <t>Doug Gutwein</t>
-  </si>
-  <si>
-    <t>Timothy Harman</t>
-  </si>
-  <si>
-    <t>David Wolkins</t>
-  </si>
-  <si>
-    <t>Rochelle VanDenburgh</t>
-  </si>
-  <si>
-    <t>Thomas Dermody</t>
-  </si>
-  <si>
-    <t>Timothy Wesco</t>
-  </si>
-  <si>
-    <t>Rebecca Kubacki</t>
-  </si>
-  <si>
-    <t>William Friend</t>
-  </si>
-  <si>
-    <t>Steven Braun</t>
-  </si>
-  <si>
-    <t>Donald Lehe</t>
-  </si>
-  <si>
-    <t>Randy Truitt</t>
-  </si>
-  <si>
-    <t>Sheila Klinker</t>
-  </si>
-  <si>
-    <t>Jeffrey Thompson</t>
-  </si>
-  <si>
-    <t>Kathy Richardson</t>
-  </si>
-  <si>
-    <t>Michael Karickhoff</t>
-  </si>
-  <si>
-    <t>Kevin Mahan</t>
-  </si>
-  <si>
-    <t>Eric Turner</t>
-  </si>
-  <si>
-    <t>Bill Davis</t>
-  </si>
-  <si>
-    <t>Sue Errington</t>
-  </si>
-  <si>
-    <t>Jack Lutz</t>
-  </si>
-  <si>
-    <t>Terri Jo Austin</t>
-  </si>
-  <si>
-    <t>Todd Huston</t>
-  </si>
-  <si>
-    <t>Heath VanNatter</t>
-  </si>
-  <si>
-    <t>Gerald Torr</t>
-  </si>
-  <si>
-    <t>Gregory Steuerwald</t>
-  </si>
-  <si>
-    <t>Timothy Brown</t>
-  </si>
-  <si>
-    <t>Alan Morrison</t>
-  </si>
-  <si>
-    <t>Clyde Kersey</t>
-  </si>
-  <si>
-    <t>James Baird</t>
-  </si>
-  <si>
-    <t>Kreg Battles</t>
-  </si>
-  <si>
-    <t>Robert Heaton</t>
-  </si>
-  <si>
-    <t>John Price</t>
-  </si>
-  <si>
-    <t>Timothy Neese</t>
-  </si>
-  <si>
-    <t>Wes Culver</t>
-  </si>
-  <si>
-    <t>Daniel Leonard</t>
-  </si>
-  <si>
-    <t>Dennis Zent</t>
-  </si>
-  <si>
-    <t>Ben Smaltz</t>
-  </si>
-  <si>
-    <t>Robert Cherry</t>
-  </si>
-  <si>
-    <t>Thomas Saunders</t>
-  </si>
-  <si>
-    <t>Cindy Ziemke</t>
-  </si>
-  <si>
-    <t>Richard Hamm</t>
-  </si>
-  <si>
-    <t>Sean Eberhart</t>
-  </si>
-  <si>
-    <t>Charles Burton</t>
-  </si>
-  <si>
-    <t>Milo Smith</t>
-  </si>
-  <si>
-    <t>Peggy Mayfield</t>
-  </si>
-  <si>
-    <t>Matt Pierce</t>
-  </si>
-  <si>
-    <t>Matthew Ubelhor</t>
-  </si>
-  <si>
-    <t>Mark Messmer</t>
-  </si>
-  <si>
-    <t>Thomas Washburne</t>
-  </si>
-  <si>
-    <t>Eric Koch</t>
-  </si>
-  <si>
-    <t>Terry Goodin</t>
-  </si>
-  <si>
-    <t>Randall Frye</t>
-  </si>
-  <si>
-    <t>Judson McMillin</t>
-  </si>
-  <si>
-    <t>Jim Lucas</t>
-  </si>
-  <si>
-    <t>Rhonda Rhoads</t>
-  </si>
-  <si>
-    <t>Steven Stemler</t>
-  </si>
-  <si>
-    <t>Edward Clere</t>
-  </si>
-  <si>
-    <t>Steven Davisson</t>
-  </si>
-  <si>
-    <t>Lloyd Arnold</t>
-  </si>
-  <si>
-    <t>Ronald Bacon</t>
-  </si>
-  <si>
-    <t>Wendy McNamara</t>
-  </si>
-  <si>
-    <t>Gail Riecken</t>
-  </si>
-  <si>
-    <t>Suzanne Crouch</t>
-  </si>
-  <si>
-    <t>Matthew Lehman</t>
-  </si>
-  <si>
-    <t>Philip GiaQuinta</t>
-  </si>
-  <si>
-    <t>Martin Carbaugh</t>
-  </si>
-  <si>
-    <t>David Ober</t>
-  </si>
-  <si>
-    <t>Kathleen Heuer</t>
-  </si>
-  <si>
-    <t>Robert Morris</t>
-  </si>
-  <si>
-    <t>Phyllis Pond</t>
-  </si>
-  <si>
-    <t>Edward DeLaney</t>
-  </si>
-  <si>
-    <t>Christina Hale</t>
-  </si>
-  <si>
-    <t>Brian Bosma</t>
-  </si>
-  <si>
-    <t>Cindy Kirchhofer</t>
-  </si>
-  <si>
-    <t>Mike Speedy</t>
-  </si>
-  <si>
-    <t>Robert Behning</t>
-  </si>
-  <si>
-    <t>Karlee Macer</t>
-  </si>
-  <si>
-    <t>David Frizzell</t>
-  </si>
-  <si>
-    <t>Cherrish Pryor</t>
-  </si>
-  <si>
-    <t>John Bartlett</t>
-  </si>
-  <si>
-    <t>Gregory Porter</t>
-  </si>
-  <si>
-    <t>Justin Moed</t>
-  </si>
-  <si>
-    <t>Robin Shackleford</t>
-  </si>
-  <si>
-    <t>Vanessa Summers</t>
-  </si>
-  <si>
-    <t>Dan Forestal</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t16</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X106" sqref="X106"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:Y102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,84 +1073,84 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="L1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W1" t="s">
+        <v>223</v>
+      </c>
+      <c r="X1" t="s">
         <v>224</v>
       </c>
-      <c r="M1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>225</v>
-      </c>
-      <c r="W1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H2">
         <v>0.9265318675509735</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H3">
         <v>0.97106352690912112</v>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H4">
         <v>0.12432418316594242</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H5">
         <v>0.99999993579848012</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <v>0.99999990011524931</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="H7">
         <v>0.5968856395075427</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H9">
         <v>0.81600585198408482</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H10">
         <v>0.79446508478510991</v>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>0.5</v>
@@ -1818,13 +1818,13 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="H12">
         <v>0.99998484918290231</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H13">
         <v>0.72361950462518354</v>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H14">
         <v>0.99999977848486898</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H15">
         <v>0.23153424794410402</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H16">
         <v>0.99999978398243894</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D17">
         <v>0.5</v>
@@ -2220,13 +2220,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H18">
         <v>0.99998523226320846</v>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="H19">
         <v>0.99999983769565559</v>
@@ -2350,13 +2350,13 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H20">
         <v>0.88631724880640117</v>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H21">
         <v>0.99999977468596113</v>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D22">
         <v>0.99989798000408092</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D23">
         <v>0.99999793878394438</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H24">
         <v>0.9999999936189724</v>
@@ -2699,13 +2699,13 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="H25">
         <v>0.99999997656461792</v>
@@ -2764,13 +2764,13 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H26">
         <v>0.99999996185680229</v>
@@ -2829,13 +2829,13 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H27">
         <v>0.99999974259839253</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="H28">
         <v>0.99983685625336405</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H29">
         <v>0.99999002935699355</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H30">
         <v>0.99999989945390788</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H31">
         <v>0.99999988925159722</v>
@@ -3154,13 +3154,13 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H32">
         <v>0.99999996320180762</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H33">
         <v>0.99999989072094408</v>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H34">
         <v>0.99999700486604315</v>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H35">
         <v>0.98173494369833492</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H36">
         <v>0.99999998022239944</v>
@@ -3476,13 +3476,13 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="H37">
         <v>0.98466013377815287</v>
@@ -3541,13 +3541,13 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="H38">
         <v>0.99999878615234439</v>
@@ -3606,13 +3606,13 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="H39">
         <v>0.99999961987764174</v>
@@ -3671,13 +3671,13 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D40">
         <v>0.99999793878394438</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H41">
         <v>0.99999949630278817</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H42">
         <v>0.99999895328391819</v>
@@ -3872,13 +3872,13 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="H43">
         <v>0.99999697391614195</v>
@@ -3937,13 +3937,13 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="H44">
         <v>0.85740647154505312</v>
@@ -4002,13 +4002,13 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H45">
         <v>0.99999985503973898</v>
@@ -4067,13 +4067,13 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H46">
         <v>0.99686166838859436</v>
@@ -4132,13 +4132,13 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H47">
         <v>0.99999998275587876</v>
@@ -4197,13 +4197,13 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D48">
         <v>0.5</v>
@@ -4274,13 +4274,13 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H49">
         <v>0.99999175393499917</v>
@@ -4339,13 +4339,13 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="H50">
         <v>0.99999974400174574</v>
@@ -4404,13 +4404,13 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G51">
         <v>0.99</v>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H52">
         <v>0.99999935259051909</v>
@@ -4537,13 +4537,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H53">
         <v>0.99999976099671284</v>
@@ -4602,13 +4602,13 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H54">
         <v>0.99999995408251408</v>
@@ -4667,13 +4667,13 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="H55">
         <v>0.99986877450516065</v>
@@ -4732,13 +4732,13 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H56">
         <v>0.99999999561122654</v>
@@ -4797,13 +4797,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G57">
         <v>0.99</v>
@@ -4865,13 +4865,13 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H58">
         <v>0.9999906419468737</v>
@@ -4930,13 +4930,13 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H59">
         <v>0.99999996026838311</v>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H60">
         <v>0.99999997852930655</v>
@@ -5060,13 +5060,13 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="H61">
         <v>0.99999891948718156</v>
@@ -5125,13 +5125,13 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H62">
         <v>0.54857079486476823</v>
@@ -5190,13 +5190,13 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="H63">
         <v>0.99999946216092006</v>
@@ -5255,13 +5255,13 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="H64">
         <v>0.9999998895115062</v>
@@ -5320,13 +5320,13 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="H65">
         <v>0.99996941224082325</v>
@@ -5385,13 +5385,13 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H66">
         <v>0.99999888734513276</v>
@@ -5450,10 +5450,10 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H67">
         <v>0.98851039883683234</v>
@@ -5512,13 +5512,13 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H68">
         <v>0.99999872375233845</v>
@@ -5577,13 +5577,13 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H69">
         <v>0.99999942463596336</v>
@@ -5642,13 +5642,13 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H70">
         <v>0.99999974141230008</v>
@@ -5707,13 +5707,13 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H71">
         <v>0.999999956029474</v>
@@ -5772,10 +5772,10 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="H72">
         <v>0.99996147264010604</v>
@@ -5834,13 +5834,13 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="H73">
         <v>0.99999999042361787</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H74">
         <v>0.99999757445402726</v>
@@ -5961,13 +5961,13 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H75">
         <v>0.99998401536431691</v>
@@ -6026,13 +6026,13 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H76">
         <v>0.99999765137122687</v>
@@ -6091,13 +6091,13 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H77">
         <v>0.99999969766594943</v>
@@ -6156,13 +6156,13 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H78">
         <v>0.98276439209756128</v>
@@ -6221,10 +6221,10 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H79">
         <v>0.99999976292465698</v>
@@ -6283,13 +6283,13 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H80">
         <v>0.99999998973265347</v>
@@ -6348,13 +6348,13 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G81">
         <v>0.66666666666666663</v>
@@ -6416,13 +6416,13 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D82">
         <v>0.99999896939091004</v>
@@ -6493,13 +6493,13 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D83">
         <v>0.99999998958979652</v>
@@ -6570,13 +6570,13 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H84">
         <v>0.99999998730810602</v>
@@ -6635,13 +6635,13 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G85">
         <v>0.99</v>
@@ -6703,10 +6703,10 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H86">
         <v>0.99999997333232438</v>
@@ -6765,13 +6765,13 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H87">
         <v>0.67530747248482215</v>
@@ -6830,13 +6830,13 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="H88">
         <v>0.99771642341465905</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="H89">
         <v>0.99999999994837463</v>
@@ -6957,13 +6957,13 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H90">
         <v>0.99999997898257942</v>
@@ -7022,13 +7022,13 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H91">
         <v>0.999999982395811</v>
@@ -7087,13 +7087,13 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="H92">
         <v>0.99999990210015399</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="H93">
         <v>0.97465996048630055</v>
@@ -7214,13 +7214,13 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="H94">
         <v>0.99999985363769672</v>
@@ -7279,13 +7279,13 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H95">
         <v>0.17535058075722912</v>
@@ -7344,13 +7344,13 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D96">
         <v>0.5</v>
@@ -7421,13 +7421,13 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="H97">
         <v>0.34824942765478789</v>
@@ -7486,13 +7486,13 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H98">
         <v>0.99831766788679244</v>
@@ -7551,13 +7551,13 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H99">
         <v>0.68774256251039589</v>
@@ -7616,13 +7616,13 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="H100">
         <v>0.68044923909885324</v>
@@ -7681,13 +7681,13 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D101">
         <v>0.99999793878394438</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="H102">
         <v>77.777777777777786</v>

--- a/data/IN/outputs/590034/t_set_test.xlsx
+++ b/data/IN/outputs/590034/t_set_test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -677,9 +677,6 @@
     <t>t10</t>
   </si>
   <si>
-    <t>t11</t>
-  </si>
-  <si>
     <t>t12</t>
   </si>
   <si>
@@ -702,6 +699,9 @@
   </si>
   <si>
     <t>t18_check</t>
+  </si>
+  <si>
+    <t>t10_check</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:Y102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,31 +1115,31 @@
         <v>216</v>
       </c>
       <c r="Q1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" t="s">
         <v>217</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>218</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>219</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>220</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>221</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>222</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>223</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>224</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1153,34 +1153,34 @@
         <v>106</v>
       </c>
       <c r="H2">
-        <v>0.9265318675509735</v>
+        <v>0.88093729204749094</v>
       </c>
       <c r="I2">
-        <v>0.85959022939628738</v>
+        <v>0.5921180681908863</v>
       </c>
       <c r="J2">
-        <v>0.60681998138879112</v>
+        <v>0.51356531360684399</v>
       </c>
       <c r="K2">
-        <v>0.50712439237307028</v>
+        <v>0.21312701252567873</v>
       </c>
       <c r="L2">
-        <v>0.12105532907348569</v>
+        <v>0.1435943754720273</v>
       </c>
       <c r="M2">
-        <v>8.1433267697630374E-2</v>
+        <v>9.3098602924527971E-2</v>
       </c>
       <c r="N2">
-        <v>1.9750366620665982E-2</v>
+        <v>4.7944925009465955E-2</v>
       </c>
       <c r="O2">
-        <v>0.01</v>
+        <v>2.9329434011377806E-2</v>
       </c>
       <c r="P2">
-        <v>8.2076041038020523E-3</v>
+        <v>2.0132971498623895E-2</v>
       </c>
       <c r="Q2">
-        <v>1.5391469885374057E-3</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>1.2316967432965719E-3</v>
@@ -1218,34 +1218,34 @@
         <v>107</v>
       </c>
       <c r="H3">
-        <v>0.97106352690912112</v>
+        <v>0.92829151265147281</v>
       </c>
       <c r="I3">
-        <v>0.94523140074959044</v>
+        <v>0.70355563823476486</v>
       </c>
       <c r="J3">
-        <v>0.78318716007426692</v>
+        <v>0.63670728716453551</v>
       </c>
       <c r="K3">
-        <v>0.73040042959945584</v>
+        <v>0.30466239893756725</v>
       </c>
       <c r="L3">
-        <v>0.31981698834255606</v>
+        <v>0.23393807673227257</v>
       </c>
       <c r="M3">
-        <v>0.26291617811874252</v>
+        <v>0.14225788097523237</v>
       </c>
       <c r="N3">
-        <v>6.4495190612925496E-2</v>
+        <v>6.7360525535014454E-2</v>
       </c>
       <c r="O3">
-        <v>9.2159201242392082E-3</v>
+        <v>4.3879619325706685E-2</v>
       </c>
       <c r="P3">
-        <v>7.0034994481935047E-3</v>
+        <v>3.2118622476988129E-2</v>
       </c>
       <c r="Q3">
-        <v>1.2508166144011832E-3</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>9.5923936529914453E-4</v>
@@ -1283,34 +1283,34 @@
         <v>108</v>
       </c>
       <c r="H4">
-        <v>0.12432418316594242</v>
+        <v>9.8228614107115156E-2</v>
       </c>
       <c r="I4">
-        <v>3.8821495273029201E-2</v>
+        <v>9.9170811835405746E-3</v>
       </c>
       <c r="J4">
-        <v>8.2758712794226749E-3</v>
+        <v>5.1951033062022775E-3</v>
       </c>
       <c r="K4">
-        <v>3.642558612184499E-3</v>
+        <v>1.2036801805741495E-3</v>
       </c>
       <c r="L4">
-        <v>3.020471988037359E-4</v>
+        <v>5.8702985581238925E-4</v>
       </c>
       <c r="M4">
-        <v>1.6266347568532475E-4</v>
+        <v>2.6424875216436001E-4</v>
       </c>
       <c r="N4">
-        <v>1.4789775749873239E-5</v>
+        <v>9.9877865692039774E-5</v>
       </c>
       <c r="O4">
-        <v>2.7485754922330351E-6</v>
+        <v>3.8273315782633547E-5</v>
       </c>
       <c r="P4">
-        <v>1.2790419601415389E-6</v>
+        <v>1.7713634307406995E-5</v>
       </c>
       <c r="Q4">
-        <v>1.553977959374611E-7</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>6.9400963377226638E-8</v>
@@ -1348,34 +1348,34 @@
         <v>109</v>
       </c>
       <c r="H5">
-        <v>0.99999993579848012</v>
+        <v>0.99999994905532463</v>
       </c>
       <c r="I5">
-        <v>0.99999999213858892</v>
+        <v>0.99999997340388203</v>
       </c>
       <c r="J5">
-        <v>0.99999999439665366</v>
+        <v>0.99999999783519966</v>
       </c>
       <c r="K5">
-        <v>0.99999999896675884</v>
+        <v>0.99999999851435273</v>
       </c>
       <c r="L5">
-        <v>0.99999999946706508</v>
+        <v>0.99999999972382192</v>
       </c>
       <c r="M5">
-        <v>0.99999999988250254</v>
+        <v>0.99999999993469679</v>
       </c>
       <c r="N5">
-        <v>0.99999999993444877</v>
+        <v>0.99999999999029276</v>
       </c>
       <c r="O5">
-        <v>0.9999999999577559</v>
+        <v>0.99999999999879496</v>
       </c>
       <c r="P5">
-        <v>0.99999999999409173</v>
+        <v>0.99999999999983535</v>
       </c>
       <c r="Q5">
-        <v>0.99999999999684452</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0.99999999999961886</v>
@@ -1413,34 +1413,34 @@
         <v>110</v>
       </c>
       <c r="H6">
-        <v>0.99999990011524931</v>
+        <v>0.99999995486653426</v>
       </c>
       <c r="I6">
-        <v>0.99999998622279174</v>
+        <v>0.99999998155414827</v>
       </c>
       <c r="J6">
-        <v>0.99999999400990935</v>
+        <v>0.99999999761288971</v>
       </c>
       <c r="K6">
-        <v>0.99999999850247734</v>
+        <v>0.99999999888844493</v>
       </c>
       <c r="L6">
-        <v>0.99999999942031381</v>
+        <v>0.99999999987721189</v>
       </c>
       <c r="M6">
-        <v>0.99999999971921449</v>
+        <v>0.99999999996720046</v>
       </c>
       <c r="N6">
-        <v>0.9999999998660869</v>
+        <v>0.99999999999548272</v>
       </c>
       <c r="O6">
-        <v>0.99999999991244137</v>
+        <v>0.99999999999930089</v>
       </c>
       <c r="P6">
-        <v>0.99999999997783329</v>
+        <v>0.99999999999991251</v>
       </c>
       <c r="Q6">
-        <v>0.99999999999085176</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0.99999999999785416</v>
@@ -1478,34 +1478,34 @@
         <v>111</v>
       </c>
       <c r="H7">
-        <v>0.5968856395075427</v>
+        <v>0.50455293278192137</v>
       </c>
       <c r="I7">
-        <v>0.36541063610684527</v>
+        <v>0.20397206418369723</v>
       </c>
       <c r="J7">
-        <v>9.1355468368390036E-2</v>
+        <v>0.12845914966477756</v>
       </c>
       <c r="K7">
-        <v>5.3932859260037477E-2</v>
+        <v>4.9403448105018732E-2</v>
       </c>
       <c r="L7">
-        <v>8.5034113544270318E-3</v>
+        <v>3.1404080134989923E-2</v>
       </c>
       <c r="M7">
-        <v>6.3911451498790909E-3</v>
+        <v>1.5745930712541361E-2</v>
       </c>
       <c r="N7">
-        <v>0.01</v>
+        <v>7.4839473579753147E-3</v>
       </c>
       <c r="O7">
-        <v>2.290426019239579E-3</v>
+        <v>4.0677578079991563E-3</v>
       </c>
       <c r="P7">
-        <v>1.519545475617734E-3</v>
+        <v>2.4076816498391738E-3</v>
       </c>
       <c r="Q7">
-        <v>2.8437854659812414E-4</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>1.7548672628145978E-4</v>
@@ -1543,46 +1543,46 @@
         <v>112</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.9999489873998878</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="H8">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="I8">
-        <v>8.6927816901408456E-3</v>
+        <v>0.10983555693453305</v>
       </c>
       <c r="J8">
-        <v>2.253593920162702E-3</v>
+        <v>0.1238913154617103</v>
       </c>
       <c r="K8">
-        <v>2.006443127621038E-3</v>
+        <v>5.035861522641015E-2</v>
       </c>
       <c r="L8">
-        <v>8.0729646104319851E-4</v>
+        <v>5.6167847253115057E-2</v>
       </c>
       <c r="M8">
-        <v>1.0117560966866391E-3</v>
+        <v>5.6167847253115057E-2</v>
       </c>
       <c r="N8">
-        <v>2.5103963695016415E-4</v>
+        <v>5.2620362267590697E-2</v>
       </c>
       <c r="O8">
-        <v>6.3800706946960789E-5</v>
+        <v>5.1445932652196866E-2</v>
       </c>
       <c r="P8">
-        <v>8.1042743801721157E-5</v>
+        <v>5.8054017593951728E-2</v>
       </c>
       <c r="Q8">
-        <v>2.5716908860053683E-5</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>2.9948678515041426E-5</v>
@@ -1620,34 +1620,34 @@
         <v>113</v>
       </c>
       <c r="H9">
-        <v>0.81600585198408482</v>
+        <v>0.52222165660462372</v>
       </c>
       <c r="I9">
-        <v>0.67905087071887471</v>
+        <v>0.27511076308609789</v>
       </c>
       <c r="J9">
-        <v>0.39086213438294626</v>
+        <v>0.16951260171503901</v>
       </c>
       <c r="K9">
-        <v>0.28787539319014993</v>
+        <v>6.2425625139786847E-2</v>
       </c>
       <c r="L9">
-        <v>0.11684147540620787</v>
+        <v>3.6500159685601004E-2</v>
       </c>
       <c r="M9">
-        <v>0.10913107245151821</v>
+        <v>2.2080643305344698E-2</v>
       </c>
       <c r="N9">
-        <v>2.8962160532831401E-2</v>
+        <v>1.1231290023661623E-2</v>
       </c>
       <c r="O9">
-        <v>1.1234629190790853E-2</v>
+        <v>6.5916384229318453E-3</v>
       </c>
       <c r="P9">
-        <v>7.5563656941518287E-3</v>
+        <v>3.9188320747253575E-3</v>
       </c>
       <c r="Q9">
-        <v>2.4274013448151344E-3</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1.6029081011383411E-3</v>
@@ -1685,34 +1685,34 @@
         <v>114</v>
       </c>
       <c r="H10">
-        <v>0.79446508478510991</v>
+        <v>0.81321057122970308</v>
       </c>
       <c r="I10">
-        <v>0.67488534206077133</v>
+        <v>0.45226096525665638</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>0.31517119301727153</v>
       </c>
       <c r="K10">
-        <v>6.6560699384065171E-3</v>
+        <v>0.124178082454569</v>
       </c>
       <c r="L10">
-        <v>1.6010118121559135E-3</v>
+        <v>7.0700678875343148E-2</v>
       </c>
       <c r="M10">
-        <v>1.1441032151861777E-3</v>
+        <v>4.1912261111685965E-2</v>
       </c>
       <c r="N10">
-        <v>1.999528767772492E-4</v>
+        <v>2.128218037646936E-2</v>
       </c>
       <c r="O10">
-        <v>5.04158276773767E-5</v>
+        <v>1.3725756490093633E-2</v>
       </c>
       <c r="P10">
-        <v>3.8489961894258516E-5</v>
+        <v>7.6470546427311733E-3</v>
       </c>
       <c r="Q10">
-        <v>8.3224049917985769E-6</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6.3746204952905656E-6</v>
@@ -1756,40 +1756,40 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="I11">
-        <v>0.27848101265822789</v>
+        <v>5.3946846489488283E-2</v>
       </c>
       <c r="J11">
-        <v>6.7314088067048014E-2</v>
+        <v>3.7307729989223076E-2</v>
       </c>
       <c r="K11">
-        <v>5.3826624983924397E-2</v>
+        <v>1.1411872440131124E-2</v>
       </c>
       <c r="L11">
-        <v>1.4693468553425954E-2</v>
+        <v>7.8598168439254924E-3</v>
       </c>
       <c r="M11">
-        <v>1.6915763524813169E-2</v>
+        <v>4.9134751960834321E-3</v>
       </c>
       <c r="N11">
-        <v>3.8807670556203042E-3</v>
+        <v>2.7817409029836644E-3</v>
       </c>
       <c r="O11">
-        <v>1.0748500863443314E-3</v>
+        <v>2.2401781111979521E-3</v>
       </c>
       <c r="P11">
-        <v>1.0748500863443314E-3</v>
+        <v>1.5691792501411799E-3</v>
       </c>
       <c r="Q11">
-        <v>2.4149417573759367E-4</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>2.2292184178288919E-4</v>
@@ -1830,31 +1830,31 @@
         <v>0.99998484918290231</v>
       </c>
       <c r="I12">
-        <v>0.99999415605901609</v>
+        <v>0.99998768992613796</v>
       </c>
       <c r="J12">
-        <v>0.99999589898163532</v>
+        <v>0.99999684354191154</v>
       </c>
       <c r="K12">
-        <v>0.99999888153711003</v>
+        <v>0.99999763265456565</v>
       </c>
       <c r="L12">
-        <v>0.99999927628843255</v>
+        <v>0.99999922169341493</v>
       </c>
       <c r="M12">
-        <v>0.99999968824719632</v>
+        <v>0.9999995986855158</v>
       </c>
       <c r="N12">
-        <v>0.99999971369639751</v>
+        <v>0.99999981431713891</v>
       </c>
       <c r="O12">
-        <v>0.99999982381314834</v>
+        <v>0.99999995953065257</v>
       </c>
       <c r="P12">
-        <v>0.99999993548086408</v>
+        <v>0.99999999259707029</v>
       </c>
       <c r="Q12">
-        <v>0.99999994757820143</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0.9999999810699054</v>
@@ -1895,31 +1895,31 @@
         <v>0.72361950462518354</v>
       </c>
       <c r="I13">
-        <v>0.58572030574345424</v>
+        <v>0.32567706770271032</v>
       </c>
       <c r="J13">
-        <v>0.27546159643758678</v>
+        <v>0.22567465019267841</v>
       </c>
       <c r="K13">
-        <v>0.20916068221978457</v>
+        <v>8.0403995557946834E-2</v>
       </c>
       <c r="L13">
-        <v>5.2308490558684494E-2</v>
+        <v>4.2543335867878451E-2</v>
       </c>
       <c r="M13">
-        <v>3.8702222063993326E-2</v>
+        <v>2.9843740921945475E-2</v>
       </c>
       <c r="N13">
-        <v>1.0425590714228723E-2</v>
+        <v>1.5292723533756464E-2</v>
       </c>
       <c r="O13">
-        <v>1.9603818392217617E-3</v>
+        <v>9.1368186274246085E-3</v>
       </c>
       <c r="P13">
-        <v>1.3730748127332654E-3</v>
+        <v>6.4470666425853838E-3</v>
       </c>
       <c r="Q13">
-        <v>2.5356958954692542E-4</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>1.9018924871262716E-4</v>
@@ -1957,34 +1957,34 @@
         <v>118</v>
       </c>
       <c r="H14">
-        <v>0.99999977848486898</v>
+        <v>0.99999981459621101</v>
       </c>
       <c r="I14">
-        <v>0.99999997784848249</v>
+        <v>0.99999990205081979</v>
       </c>
       <c r="J14">
-        <v>0.99999998892424102</v>
+        <v>0.99</v>
       </c>
       <c r="K14">
-        <v>0.99999999705581089</v>
+        <v>0.99298775075448242</v>
       </c>
       <c r="L14">
-        <v>0.99999999850207921</v>
+        <v>0.99863365188752984</v>
       </c>
       <c r="M14">
-        <v>0.99999999930865191</v>
+        <v>0.99958585218327545</v>
       </c>
       <c r="N14">
-        <v>0.99999999967028008</v>
+        <v>0.99992537660770076</v>
       </c>
       <c r="O14">
-        <v>0.99999999977372167</v>
+        <v>0.9999894642576338</v>
       </c>
       <c r="P14">
-        <v>0.99999999995959321</v>
+        <v>0.99999861204519513</v>
       </c>
       <c r="Q14">
-        <v>0.99999999998047007</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0.9999999999973368</v>
@@ -2022,34 +2022,34 @@
         <v>119</v>
       </c>
       <c r="H15">
-        <v>0.23153424794410402</v>
+        <v>0.26662227123745041</v>
       </c>
       <c r="I15">
-        <v>9.350147113879767E-2</v>
+        <v>5.4183257080841943E-2</v>
       </c>
       <c r="J15">
-        <v>2.408980935509478E-2</v>
+        <v>3.1218112937479302E-2</v>
       </c>
       <c r="K15">
-        <v>1.2432556752865065E-2</v>
+        <v>8.4087170843029305E-3</v>
       </c>
       <c r="L15">
-        <v>0.01</v>
+        <v>4.0795713171880238E-3</v>
       </c>
       <c r="M15">
-        <v>6.0240963855421681E-3</v>
+        <v>2.1106098197434739E-3</v>
       </c>
       <c r="N15">
-        <v>9.1094202121959041E-4</v>
+        <v>8.6793710323230275E-4</v>
       </c>
       <c r="O15">
-        <v>1.2203340590591014E-4</v>
+        <v>3.7938124107443454E-4</v>
       </c>
       <c r="P15">
-        <v>7.2704339152552573E-5</v>
+        <v>1.9137609077174306E-4</v>
       </c>
       <c r="Q15">
-        <v>1.1079439219191711E-5</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>5.4289558937952318E-6</v>
@@ -2087,34 +2087,34 @@
         <v>120</v>
       </c>
       <c r="H16">
-        <v>0.99999978398243894</v>
+        <v>0.99999943059919694</v>
       </c>
       <c r="I16">
-        <v>0.99999996445279993</v>
+        <v>0.99999971253543585</v>
       </c>
       <c r="J16">
-        <v>0.99999998104149301</v>
+        <v>0.99999996120109214</v>
       </c>
       <c r="K16">
-        <v>0.99999999544995821</v>
+        <v>0.99999997233781546</v>
       </c>
       <c r="L16">
-        <v>0.99999999763747827</v>
+        <v>0.99999999372990467</v>
       </c>
       <c r="M16">
-        <v>0.99999999916403071</v>
+        <v>0.99999999824076458</v>
       </c>
       <c r="N16">
-        <v>0.99999999957493091</v>
+        <v>0.999999999627182</v>
       </c>
       <c r="O16">
-        <v>0.99999999971059117</v>
+        <v>0.99999999994264344</v>
       </c>
       <c r="P16">
-        <v>0.99999999994805489</v>
+        <v>0.99999999998957156</v>
       </c>
       <c r="Q16">
-        <v>0.99999999997449973</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0.99999999999622213</v>
@@ -2152,7 +2152,7 @@
         <v>121</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.99999793878394438</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2167,31 +2167,31 @@
         <v>0.99</v>
       </c>
       <c r="I17">
-        <v>0.99889337325869021</v>
+        <v>0.9951923076923076</v>
       </c>
       <c r="J17">
-        <v>0.99936881905253461</v>
+        <v>0.99944063355609858</v>
       </c>
       <c r="K17">
-        <v>0.99992713074241546</v>
+        <v>0.99968272146338133</v>
       </c>
       <c r="L17">
-        <v>0.99997192067973817</v>
+        <v>0.99995179282010938</v>
       </c>
       <c r="M17">
-        <v>0.99999197717615695</v>
+        <v>0.99998928689167532</v>
       </c>
       <c r="N17">
-        <v>0.99999594885503884</v>
+        <v>0.99999861918648536</v>
       </c>
       <c r="O17">
-        <v>0.99999770843922209</v>
+        <v>0.99999985653867807</v>
       </c>
       <c r="P17">
-        <v>0.999999567326881</v>
+        <v>0.99999997468329316</v>
       </c>
       <c r="Q17">
-        <v>0.9999997906419924</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0.9999999575427746</v>
@@ -2229,34 +2229,34 @@
         <v>122</v>
       </c>
       <c r="H18">
-        <v>0.99998523226320846</v>
+        <v>0.99998753683623354</v>
       </c>
       <c r="I18">
-        <v>0.99999626129122332</v>
+        <v>0.99999481616848596</v>
       </c>
       <c r="J18">
-        <v>0.99999829558517872</v>
+        <v>0.99999852890721663</v>
       </c>
       <c r="K18">
-        <v>0.99999957389574989</v>
+        <v>0.99999930436643891</v>
       </c>
       <c r="L18">
-        <v>0.99999983505637635</v>
+        <v>0.99999987902018073</v>
       </c>
       <c r="M18">
-        <v>0.99999993784732377</v>
+        <v>0.99999996396345503</v>
       </c>
       <c r="N18">
-        <v>0.99999997174878252</v>
+        <v>0.99999999175634557</v>
       </c>
       <c r="O18">
-        <v>0.99999998486541897</v>
+        <v>0.99999999799193029</v>
       </c>
       <c r="P18">
-        <v>0.99999999567583397</v>
+        <v>0.99999999961629249</v>
       </c>
       <c r="Q18">
-        <v>0.99999999840338483</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0.99999999946779494</v>
@@ -2294,34 +2294,34 @@
         <v>123</v>
       </c>
       <c r="H19">
-        <v>0.99999983769565559</v>
+        <v>0.99999945758836095</v>
       </c>
       <c r="I19">
-        <v>0.99999997616509295</v>
+        <v>0.99999977138014651</v>
       </c>
       <c r="J19">
-        <v>0.99999998751504859</v>
+        <v>0.99999993983687052</v>
       </c>
       <c r="K19">
-        <v>0.99999999799193084</v>
+        <v>0.99999996886663145</v>
       </c>
       <c r="L19">
-        <v>0.99999999917314797</v>
+        <v>0.99999999464097733</v>
       </c>
       <c r="M19">
-        <v>0.99999999974291154</v>
+        <v>0.99999999894625957</v>
       </c>
       <c r="N19">
-        <v>0.99999999988800103</v>
+        <v>0.99999999985426991</v>
       </c>
       <c r="O19">
-        <v>0.99999999993566013</v>
+        <v>0.99999999997947464</v>
       </c>
       <c r="P19">
-        <v>0.99999999998665545</v>
+        <v>0.99999999999557654</v>
       </c>
       <c r="Q19">
-        <v>0.99999999999347933</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0.99999999999871492</v>
@@ -2362,31 +2362,31 @@
         <v>0.88631724880640117</v>
       </c>
       <c r="I20">
-        <v>0.81863393401426932</v>
+        <v>0.71990716120410092</v>
       </c>
       <c r="J20">
-        <v>0.60710885583180152</v>
+        <v>0.63147179707320933</v>
       </c>
       <c r="K20">
-        <v>0.5156199749647582</v>
+        <v>0.34716251396942976</v>
       </c>
       <c r="L20">
-        <v>0.23644956950202997</v>
+        <v>0.25600196253079521</v>
       </c>
       <c r="M20">
-        <v>0.21159379513770757</v>
+        <v>0.20199396784220197</v>
       </c>
       <c r="N20">
-        <v>7.6963453136580207E-2</v>
+        <v>0.12040993826012872</v>
       </c>
       <c r="O20">
-        <v>2.1288437249741145E-2</v>
+        <v>8.3199175094848588E-2</v>
       </c>
       <c r="P20">
-        <v>1.8153139457814996E-2</v>
+        <v>6.3724844954450799E-2</v>
       </c>
       <c r="Q20">
-        <v>6.0582720865510241E-3</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>4.6394096676184091E-3</v>
@@ -2424,34 +2424,34 @@
         <v>125</v>
       </c>
       <c r="H21">
-        <v>0.99999977468596113</v>
+        <v>0.99999815380663659</v>
       </c>
       <c r="I21">
-        <v>0.99999995931829111</v>
+        <v>0.99999885507308017</v>
       </c>
       <c r="J21">
-        <v>0.9999999688395419</v>
+        <v>0.99999979377073389</v>
       </c>
       <c r="K21">
-        <v>0.9999999926021933</v>
+        <v>0.99999982302310686</v>
       </c>
       <c r="L21">
-        <v>0.99999999637507475</v>
+        <v>0.99999995835837241</v>
       </c>
       <c r="M21">
-        <v>0.99999999883163559</v>
+        <v>0.99999999151379115</v>
       </c>
       <c r="N21">
-        <v>0.99999999927909433</v>
+        <v>0.99999999835750797</v>
       </c>
       <c r="O21">
-        <v>0.99999999942327555</v>
+        <v>0.99999999969926201</v>
       </c>
       <c r="P21">
-        <v>0.99999999993929212</v>
+        <v>0.9999999999283008</v>
       </c>
       <c r="Q21">
-        <v>0.99999999996329281</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0.99</v>
@@ -2489,46 +2489,46 @@
         <v>126</v>
       </c>
       <c r="D22">
-        <v>0.99989798000408092</v>
+        <v>0.99999917551255801</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.8571428571428571</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="G22">
-        <v>0.8571428571428571</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="H22">
-        <v>0.8571428571428571</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="I22">
-        <v>0.97058823529411764</v>
+        <v>0.97040169133192389</v>
       </c>
       <c r="J22">
-        <v>0.98547215496368035</v>
+        <v>0.99218380931930428</v>
       </c>
       <c r="K22">
-        <v>0.99736357337209103</v>
+        <v>0.99667162780752272</v>
       </c>
       <c r="L22">
-        <v>0.99902192211114349</v>
+        <v>0.99931980316121194</v>
       </c>
       <c r="M22">
-        <v>0.99967102071280478</v>
+        <v>0.999776708366377</v>
       </c>
       <c r="N22">
-        <v>0.99985129985676535</v>
+        <v>0.99996177183465274</v>
       </c>
       <c r="O22">
-        <v>0.99993343351579167</v>
+        <v>0.99999419967647496</v>
       </c>
       <c r="P22">
-        <v>0.99998105325223829</v>
+        <v>0.99999875706786578</v>
       </c>
       <c r="Q22">
-        <v>0.99999298961964911</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0.99999816892102156</v>
@@ -2581,31 +2581,31 @@
         <v>0.99</v>
       </c>
       <c r="I23">
-        <v>0.99851883199322899</v>
+        <v>0.99352134146341464</v>
       </c>
       <c r="J23">
-        <v>0.99898609501738123</v>
+        <v>0.99841634579555338</v>
       </c>
       <c r="K23">
-        <v>0.99989175208908798</v>
+        <v>0.99892768511788865</v>
       </c>
       <c r="L23">
-        <v>0.99994866301736984</v>
+        <v>0.99978817659399344</v>
       </c>
       <c r="M23">
-        <v>0.99998545398641847</v>
+        <v>0.99994663144839968</v>
       </c>
       <c r="N23">
-        <v>0.99999226270605179</v>
+        <v>0.9999895578786131</v>
       </c>
       <c r="O23">
-        <v>0.99999457498825062</v>
+        <v>0.99999893446741839</v>
       </c>
       <c r="P23">
-        <v>0.99999901002996172</v>
+        <v>0.99999980626663454</v>
       </c>
       <c r="Q23">
-        <v>0.99999936090519403</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0.99999987404694446</v>
@@ -2643,34 +2643,34 @@
         <v>128</v>
       </c>
       <c r="H24">
-        <v>0.9999999936189724</v>
+        <v>0.99999999355561675</v>
       </c>
       <c r="I24">
-        <v>0.99999999957741548</v>
+        <v>0.99999999721064003</v>
       </c>
       <c r="J24">
-        <v>0.99999999974388809</v>
+        <v>0.99999999978155618</v>
       </c>
       <c r="K24">
-        <v>0.99999999995792443</v>
+        <v>0.99999999988395172</v>
       </c>
       <c r="L24">
-        <v>0.99999999998196765</v>
+        <v>0.99999999998103783</v>
       </c>
       <c r="M24">
-        <v>0.99999999999455924</v>
+        <v>0.99999999999530931</v>
       </c>
       <c r="N24">
-        <v>0.99999999999741984</v>
+        <v>0.99999999999945954</v>
       </c>
       <c r="O24">
-        <v>0.99999999999851352</v>
+        <v>0.99999999999994782</v>
       </c>
       <c r="P24">
-        <v>0.99999999999974853</v>
+        <v>0.99999999999999101</v>
       </c>
       <c r="Q24">
-        <v>0.99999999999989098</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0.9999999999999809</v>
@@ -2708,34 +2708,34 @@
         <v>129</v>
       </c>
       <c r="H25">
-        <v>0.99999997656461792</v>
+        <v>0.99999995806374453</v>
       </c>
       <c r="I25">
-        <v>0.99999999789344873</v>
+        <v>0.99999998019676772</v>
       </c>
       <c r="J25">
-        <v>0.99999999896292857</v>
+        <v>0.99999999804270367</v>
       </c>
       <c r="K25">
-        <v>0.99999999976665888</v>
+        <v>0.9999999988745546</v>
       </c>
       <c r="L25">
-        <v>0.99999999990666355</v>
+        <v>0.99999999983530075</v>
       </c>
       <c r="M25">
-        <v>0.99999999996568512</v>
+        <v>0.9999999999505903</v>
       </c>
       <c r="N25">
-        <v>0.99999999998391487</v>
+        <v>0.99999999999207001</v>
       </c>
       <c r="O25">
-        <v>0.99999999998906208</v>
+        <v>0.9999999999989857</v>
       </c>
       <c r="P25">
-        <v>0.99999999999815514</v>
+        <v>0.99999999999989797</v>
       </c>
       <c r="Q25">
-        <v>0.99999999999907752</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <v>0.99999999999988332</v>
@@ -2773,34 +2773,34 @@
         <v>130</v>
       </c>
       <c r="H26">
-        <v>0.99999996185680229</v>
+        <v>0.99999998803818058</v>
       </c>
       <c r="I26">
-        <v>0.99999999688137364</v>
+        <v>0.99999999546545404</v>
       </c>
       <c r="J26">
-        <v>0.99999999839854326</v>
+        <v>0.99999999952819751</v>
       </c>
       <c r="K26">
-        <v>0.99999999971866305</v>
+        <v>0.99999999976939991</v>
       </c>
       <c r="L26">
-        <v>0.99999999989861721</v>
+        <v>0.99999999997437783</v>
       </c>
       <c r="M26">
-        <v>0.99999999996999067</v>
+        <v>0.99999999999441402</v>
       </c>
       <c r="N26">
-        <v>0.99999999998777389</v>
+        <v>0.99999999999946243</v>
       </c>
       <c r="O26">
-        <v>0.99999999999364719</v>
+        <v>0.99999999999992006</v>
       </c>
       <c r="P26">
-        <v>0.99999999999858324</v>
+        <v>0.9999999999999889</v>
       </c>
       <c r="Q26">
-        <v>0.99999999999951861</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0.99999999999991818</v>
@@ -2838,34 +2838,34 @@
         <v>131</v>
       </c>
       <c r="H27">
-        <v>0.99999974259839253</v>
+        <v>0.99999956186995176</v>
       </c>
       <c r="I27">
-        <v>0.99999994629749545</v>
+        <v>0.99999968235567671</v>
       </c>
       <c r="J27">
-        <v>0.99999995900131333</v>
+        <v>0.99999994313772977</v>
       </c>
       <c r="K27">
-        <v>0.99999999085640778</v>
+        <v>0.99999995340452807</v>
       </c>
       <c r="L27">
-        <v>0.99999999455275357</v>
+        <v>0.99999998947844138</v>
       </c>
       <c r="M27">
-        <v>0.99999999843119303</v>
+        <v>0.99999999761104708</v>
       </c>
       <c r="N27">
-        <v>0.99999999896000447</v>
+        <v>0.99999999949765006</v>
       </c>
       <c r="O27">
-        <v>0.99999999914795545</v>
+        <v>0.99999999992325206</v>
       </c>
       <c r="P27">
-        <v>0.99</v>
+        <v>0.99999999998131794</v>
       </c>
       <c r="Q27">
-        <v>0.99280020570840832</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0.99923721310358915</v>
@@ -2903,34 +2903,34 @@
         <v>132</v>
       </c>
       <c r="H28">
-        <v>0.99983685625336405</v>
+        <v>0.99984108705088071</v>
       </c>
       <c r="I28">
-        <v>0.99990569941534502</v>
+        <v>0.99973450287133714</v>
       </c>
       <c r="J28">
-        <v>0.99982579758715373</v>
+        <v>0.99986301958884649</v>
       </c>
       <c r="K28">
-        <v>0.9999011209116383</v>
+        <v>0.99977400244380144</v>
       </c>
       <c r="L28">
-        <v>0.99986917953914545</v>
+        <v>0.99984259804600861</v>
       </c>
       <c r="M28">
-        <v>0.99994326834010405</v>
+        <v>0.99988590505140573</v>
       </c>
       <c r="N28">
-        <v>0.99991536988501106</v>
+        <v>0.99991998263370951</v>
       </c>
       <c r="O28">
-        <v>0.99984613771751507</v>
+        <v>0.99996069162330936</v>
       </c>
       <c r="P28">
-        <v>0.99993405322366569</v>
+        <v>0.99997772487378234</v>
       </c>
       <c r="Q28">
-        <v>0.9998839394905521</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0.99994247098873379</v>
@@ -2968,34 +2968,34 @@
         <v>133</v>
       </c>
       <c r="H29">
-        <v>0.99999002935699355</v>
+        <v>0.99999663545868811</v>
       </c>
       <c r="I29">
-        <v>0.99999835016764504</v>
+        <v>0.99999891466161916</v>
       </c>
       <c r="J29">
-        <v>0.9999992209118207</v>
+        <v>0.99999976345169062</v>
       </c>
       <c r="K29">
-        <v>0.99999980374103137</v>
+        <v>0.9999999069317993</v>
       </c>
       <c r="L29">
-        <v>0.99999992227366663</v>
+        <v>0.99999998173978211</v>
       </c>
       <c r="M29">
-        <v>0.99999996446796047</v>
+        <v>0.99999999452193455</v>
       </c>
       <c r="N29">
-        <v>0.99999998558605918</v>
+        <v>0.99999999902725945</v>
       </c>
       <c r="O29">
-        <v>0.9999999937822216</v>
+        <v>0.99999999981986276</v>
       </c>
       <c r="P29">
-        <v>0.99999999806331485</v>
+        <v>0.99999999995705335</v>
       </c>
       <c r="Q29">
-        <v>0.99999999936089379</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0.99999999982386834</v>
@@ -3033,34 +3033,34 @@
         <v>134</v>
       </c>
       <c r="H30">
-        <v>0.99999989945390788</v>
+        <v>0.99999995029802835</v>
       </c>
       <c r="I30">
-        <v>0.99999999073917489</v>
+        <v>0.9999999760559839</v>
       </c>
       <c r="J30">
-        <v>0.99999999469525558</v>
+        <v>0.99999999757709357</v>
       </c>
       <c r="K30">
-        <v>0.99999999902870873</v>
+        <v>0.99999999870201439</v>
       </c>
       <c r="L30">
-        <v>0.99999999960223307</v>
+        <v>0.99999999971633424</v>
       </c>
       <c r="M30">
-        <v>0.99999999987190558</v>
+        <v>0.99999999992730171</v>
       </c>
       <c r="N30">
-        <v>0.99999999994107658</v>
+        <v>0.99999999998919353</v>
       </c>
       <c r="O30">
-        <v>0.99999999997024647</v>
+        <v>0.99999999999884726</v>
       </c>
       <c r="P30">
-        <v>0.99999999999439426</v>
+        <v>0.99999999999979172</v>
       </c>
       <c r="Q30">
-        <v>0.99999999999764921</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>0.99999999999954337</v>
@@ -3098,34 +3098,34 @@
         <v>135</v>
       </c>
       <c r="H31">
-        <v>0.99999988925159722</v>
+        <v>0.99999991707416158</v>
       </c>
       <c r="I31">
-        <v>0.99999998864118833</v>
+        <v>0.99999996225444432</v>
       </c>
       <c r="J31">
-        <v>0.99999999283181784</v>
+        <v>0.99999999703124831</v>
       </c>
       <c r="K31">
-        <v>0.99999999874072476</v>
+        <v>0.99999999809413465</v>
       </c>
       <c r="L31">
-        <v>0.99999999941315321</v>
+        <v>0.9999999996307386</v>
       </c>
       <c r="M31">
-        <v>0.99999999983827048</v>
+        <v>0.99999999991774746</v>
       </c>
       <c r="N31">
-        <v>0.9999999999276068</v>
+        <v>0.99999999998940958</v>
       </c>
       <c r="O31">
-        <v>0.99999999995550848</v>
+        <v>0.99999999999904954</v>
       </c>
       <c r="P31">
-        <v>0.99999999999303879</v>
+        <v>0.99999999999984834</v>
       </c>
       <c r="Q31">
-        <v>0.99999999999684919</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>0.99999999999948908</v>
@@ -3163,34 +3163,34 @@
         <v>136</v>
       </c>
       <c r="H32">
-        <v>0.99999996320180762</v>
+        <v>0.99999993437821133</v>
       </c>
       <c r="I32">
-        <v>0.99999999593786182</v>
+        <v>0.99999996327138596</v>
       </c>
       <c r="J32">
-        <v>0.99999999713992316</v>
+        <v>0.99999999679692309</v>
       </c>
       <c r="K32">
-        <v>0.9999999995833001</v>
+        <v>0.99999999780950866</v>
       </c>
       <c r="L32">
-        <v>0.99999999979371301</v>
+        <v>0.99999999956190178</v>
       </c>
       <c r="M32">
-        <v>0.99999999994681665</v>
+        <v>0.9999999999102942</v>
       </c>
       <c r="N32">
-        <v>0.99999999997367162</v>
+        <v>0.999999999986384</v>
       </c>
       <c r="O32">
-        <v>0.99999999998291456</v>
+        <v>0.99999999999867384</v>
       </c>
       <c r="P32">
-        <v>0.9999999999980892</v>
+        <v>0.99999999999977196</v>
       </c>
       <c r="Q32">
-        <v>0.99999999999898093</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <v>0.999999999999865</v>
@@ -3231,31 +3231,31 @@
         <v>0.99999989072094408</v>
       </c>
       <c r="I33">
-        <v>0.99999999142909279</v>
+        <v>0.99999995762648564</v>
       </c>
       <c r="J33">
-        <v>0.99999999591112687</v>
+        <v>0.9999999951294809</v>
       </c>
       <c r="K33">
-        <v>0.99999999917634208</v>
+        <v>0.99999999747618551</v>
       </c>
       <c r="L33">
-        <v>0.99999999964933384</v>
+        <v>0.9999999994952371</v>
       </c>
       <c r="M33">
-        <v>0.99999999988410182</v>
+        <v>0.99999999988322652</v>
       </c>
       <c r="N33">
-        <v>0.99999999995450717</v>
+        <v>0.99999999998490685</v>
       </c>
       <c r="O33">
-        <v>0.99999999997770861</v>
+        <v>0.99999999999835731</v>
       </c>
       <c r="P33">
-        <v>0.9999999999957695</v>
+        <v>0.99999999999962097</v>
       </c>
       <c r="Q33">
-        <v>0.99999999999835965</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0.99999999999965017</v>
@@ -3293,31 +3293,31 @@
         <v>0.99999700486604315</v>
       </c>
       <c r="I34">
-        <v>0.9999995129851269</v>
+        <v>0.99999862385514326</v>
       </c>
       <c r="J34">
-        <v>0.99999974311297479</v>
+        <v>0.99999958957043589</v>
       </c>
       <c r="K34">
-        <v>0.99999993799277487</v>
+        <v>0.99999981941095029</v>
       </c>
       <c r="L34">
-        <v>0.9999999773306909</v>
+        <v>0.99999996087236698</v>
       </c>
       <c r="M34">
-        <v>0.99999999330715628</v>
+        <v>0.99999999123001304</v>
       </c>
       <c r="N34">
-        <v>0.99999999700790521</v>
+        <v>0.99999999873712186</v>
       </c>
       <c r="O34">
-        <v>0.99999999839448561</v>
+        <v>0.99999999981367371</v>
       </c>
       <c r="P34">
-        <v>0.999999999612462</v>
+        <v>0.9999999999602911</v>
       </c>
       <c r="Q34">
-        <v>0.99999999982194199</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>0.999999999958195</v>
@@ -3355,34 +3355,34 @@
         <v>139</v>
       </c>
       <c r="H35">
-        <v>0.98173494369833492</v>
+        <v>0.94321722105062689</v>
       </c>
       <c r="I35">
-        <v>0.96709896106347548</v>
+        <v>0.76051502117220704</v>
       </c>
       <c r="J35">
-        <v>0.86723383182559677</v>
+        <v>0.72039330591307305</v>
       </c>
       <c r="K35">
-        <v>0.84238057815748402</v>
+        <v>0.34842187579840139</v>
       </c>
       <c r="L35">
-        <v>0.46428345102730001</v>
+        <v>0.26959816609036052</v>
       </c>
       <c r="M35">
-        <v>0.44860990220275382</v>
+        <v>0.22711530981320313</v>
       </c>
       <c r="N35">
-        <v>0.18554004596767257</v>
+        <v>0.14352006428115299</v>
       </c>
       <c r="O35">
-        <v>3.2331506929083785E-2</v>
+        <v>0.10521968202124114</v>
       </c>
       <c r="P35">
-        <v>2.7088893230768456E-2</v>
+        <v>7.9449584421809008E-2</v>
       </c>
       <c r="Q35">
-        <v>5.1705116663728849E-3</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>4.7746790407813969E-3</v>
@@ -3423,31 +3423,31 @@
         <v>0.99999998022239944</v>
       </c>
       <c r="I36">
-        <v>0.99999999778803139</v>
+        <v>0.99999999167258913</v>
       </c>
       <c r="J36">
-        <v>0.99999999873601786</v>
+        <v>0.99999999945093987</v>
       </c>
       <c r="K36">
-        <v>0.99999999980357024</v>
+        <v>0.99999999970321074</v>
       </c>
       <c r="L36">
-        <v>0.99999999992473254</v>
+        <v>0.99999999995760158</v>
       </c>
       <c r="M36">
-        <v>0.99999999997717293</v>
+        <v>0.9999999999915804</v>
       </c>
       <c r="N36">
-        <v>0.99999999998958378</v>
+        <v>0.99999999999936051</v>
       </c>
       <c r="O36">
-        <v>0.99999999999415412</v>
+        <v>0.99999999999992328</v>
       </c>
       <c r="P36">
-        <v>0.9999999999990189</v>
+        <v>0.9999999999999869</v>
       </c>
       <c r="Q36">
-        <v>0.999999999999587</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>0.99999999999994771</v>
@@ -3485,34 +3485,34 @@
         <v>141</v>
       </c>
       <c r="H37">
-        <v>0.98466013377815287</v>
+        <v>0.98930581815675644</v>
       </c>
       <c r="I37">
-        <v>0.97792047800202486</v>
+        <v>0.96799309484644935</v>
       </c>
       <c r="J37">
-        <v>0.89654028928476326</v>
+        <v>0.96897247832677169</v>
       </c>
       <c r="K37">
-        <v>0.87393599790309184</v>
+        <v>0.91027856443712352</v>
       </c>
       <c r="L37">
-        <v>0.69023912786101049</v>
+        <v>0.89516043191745887</v>
       </c>
       <c r="M37">
-        <v>0.67109245306072252</v>
+        <v>0.86412348453880994</v>
       </c>
       <c r="N37">
-        <v>0.37626277634148253</v>
+        <v>0.80865171359347332</v>
       </c>
       <c r="O37">
-        <v>0.12917588975922786</v>
+        <v>0.78334530875662611</v>
       </c>
       <c r="P37">
-        <v>0.12258631455549429</v>
+        <v>0.77587433918331861</v>
       </c>
       <c r="Q37">
-        <v>4.324654260084234E-2</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>3.9943886312906247E-2</v>
@@ -3550,34 +3550,34 @@
         <v>142</v>
       </c>
       <c r="H38">
-        <v>0.99999878615234439</v>
+        <v>0.99999929769050755</v>
       </c>
       <c r="I38">
-        <v>0.9999998465248463</v>
+        <v>0.99999969807243372</v>
       </c>
       <c r="J38">
-        <v>0.99999993229036754</v>
+        <v>0.99999995822384791</v>
       </c>
       <c r="K38">
-        <v>0.99999997950892605</v>
+        <v>0.99999997659094875</v>
       </c>
       <c r="L38">
-        <v>0.99999999097003511</v>
+        <v>0.99999999604782241</v>
       </c>
       <c r="M38">
-        <v>0.99999999576720389</v>
+        <v>0.99999999908153625</v>
       </c>
       <c r="N38">
-        <v>0.99999999804640183</v>
+        <v>0.99999999987792576</v>
       </c>
       <c r="O38">
-        <v>0.99999999893440106</v>
+        <v>0.99999999997915801</v>
       </c>
       <c r="P38">
-        <v>0.99999999974371667</v>
+        <v>0.99999999999560474</v>
       </c>
       <c r="Q38">
-        <v>0.9999999998925263</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0.99999999998517597</v>
@@ -3615,34 +3615,34 @@
         <v>143</v>
       </c>
       <c r="H39">
-        <v>0.99999961987764174</v>
+        <v>0.99999958581815707</v>
       </c>
       <c r="I39">
-        <v>0.99999995803842678</v>
+        <v>0.99999983984964669</v>
       </c>
       <c r="J39">
-        <v>0.99999997883019676</v>
+        <v>0.99999997115303818</v>
       </c>
       <c r="K39">
-        <v>0.99999999625568103</v>
+        <v>0.99999998473794438</v>
       </c>
       <c r="L39">
-        <v>0.99999999859158639</v>
+        <v>0.99999999778006454</v>
       </c>
       <c r="M39">
-        <v>0.99999999957974761</v>
+        <v>0.99999999957666352</v>
       </c>
       <c r="N39">
-        <v>0.99999999982718601</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0.99999999991691635</v>
+        <v>0.99833089922804097</v>
       </c>
       <c r="P39">
-        <v>0.99999999998420241</v>
+        <v>0.99962860657830599</v>
       </c>
       <c r="Q39">
-        <v>0.99999999999436917</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>0.99999999999903577</v>
@@ -3680,7 +3680,7 @@
         <v>144</v>
       </c>
       <c r="D40">
-        <v>0.99999793878394438</v>
+        <v>0.9999951414328887</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3695,31 +3695,31 @@
         <v>0.99</v>
       </c>
       <c r="I40">
-        <v>0.99</v>
+        <v>0.99589406692670901</v>
       </c>
       <c r="J40">
-        <v>0.99460465116279073</v>
+        <v>0.99956620286523001</v>
       </c>
       <c r="K40">
-        <v>0.99899091826437947</v>
+        <v>0.99978798391438883</v>
       </c>
       <c r="L40">
-        <v>0.9996543191907431</v>
+        <v>0.99996289069410804</v>
       </c>
       <c r="M40">
-        <v>0.99989682828425441</v>
+        <v>0.99999157397388228</v>
       </c>
       <c r="N40">
-        <v>0.99995987513625106</v>
+        <v>0.99999889614570114</v>
       </c>
       <c r="O40">
-        <v>0.99998052150863337</v>
+        <v>0.99999985923992019</v>
       </c>
       <c r="P40">
-        <v>0.99999593607944515</v>
+        <v>0.99999997609734215</v>
       </c>
       <c r="Q40">
-        <v>0.99999830669575474</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0.99999969426408708</v>
@@ -3754,34 +3754,34 @@
         <v>145</v>
       </c>
       <c r="H41">
-        <v>0.99999949630278817</v>
+        <v>0.99999983280923099</v>
       </c>
       <c r="I41">
-        <v>0.99999992250808833</v>
+        <v>0.99999993238607932</v>
       </c>
       <c r="J41">
-        <v>0.99999995178280909</v>
+        <v>0.99999998927503264</v>
       </c>
       <c r="K41">
-        <v>0.99999998804532408</v>
+        <v>0.99999999419348895</v>
       </c>
       <c r="L41">
-        <v>0.99999999416166996</v>
+        <v>0.99999999877979107</v>
       </c>
       <c r="M41">
-        <v>0.9999999978870806</v>
+        <v>0.99999999966842146</v>
       </c>
       <c r="N41">
-        <v>0.99999999901557157</v>
+        <v>0.99999999995058209</v>
       </c>
       <c r="O41">
-        <v>0.99999999938017481</v>
+        <v>0.99999999999266453</v>
       </c>
       <c r="P41">
-        <v>0.99999999985537413</v>
+        <v>0.99999999999863765</v>
       </c>
       <c r="Q41">
-        <v>0.99999999994214961</v>
+        <v>0</v>
       </c>
       <c r="R41">
         <v>0.99999999998777145</v>
@@ -3816,34 +3816,34 @@
         <v>146</v>
       </c>
       <c r="H42">
-        <v>0.99999895328391819</v>
+        <v>0.99999910082040178</v>
       </c>
       <c r="I42">
-        <v>0.99999988529128148</v>
+        <v>0.99999959963516172</v>
       </c>
       <c r="J42">
-        <v>0.99999994480995291</v>
+        <v>0.99999994394890335</v>
       </c>
       <c r="K42">
-        <v>0.99999998703870052</v>
+        <v>0.99999996562199334</v>
       </c>
       <c r="L42">
-        <v>0.99999999506236215</v>
+        <v>0.99999999350904756</v>
       </c>
       <c r="M42">
-        <v>0.99999999803408868</v>
+        <v>0.99999999862109301</v>
       </c>
       <c r="N42">
-        <v>0.99999999916597704</v>
+        <v>0.99999999982438459</v>
       </c>
       <c r="O42">
-        <v>0.99999999959588581</v>
+        <v>0.99999999997616651</v>
       </c>
       <c r="P42">
-        <v>0.99999999991362443</v>
+        <v>0.99999999999481892</v>
       </c>
       <c r="Q42">
-        <v>0.99999999996432309</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>0.99999999999281131</v>
@@ -3881,34 +3881,34 @@
         <v>147</v>
       </c>
       <c r="H43">
-        <v>0.99999697391614195</v>
+        <v>0.99999839790602596</v>
       </c>
       <c r="I43">
-        <v>0.99999921400243197</v>
+        <v>0.99999919895237122</v>
       </c>
       <c r="J43">
-        <v>0.99999953613243342</v>
+        <v>0.9999998242862167</v>
       </c>
       <c r="K43">
-        <v>0.99999987349062092</v>
+        <v>0.99999989186843374</v>
       </c>
       <c r="L43">
-        <v>0.99999993329505066</v>
+        <v>0.99999998994124861</v>
       </c>
       <c r="M43">
-        <v>0.99999996500723853</v>
+        <v>0.99999999734560729</v>
       </c>
       <c r="N43">
-        <v>0.99999997173661548</v>
+        <v>0.99999999951280127</v>
       </c>
       <c r="O43">
-        <v>0.9999999788024615</v>
+        <v>0.99999999988610933</v>
       </c>
       <c r="P43">
-        <v>0.99999999414278529</v>
+        <v>0.99999999997722178</v>
       </c>
       <c r="Q43">
-        <v>0.9999999969172555</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>0.99999999900019088</v>
@@ -3946,34 +3946,34 @@
         <v>148</v>
       </c>
       <c r="H44">
-        <v>0.85740647154505312</v>
+        <v>0.75770357460935234</v>
       </c>
       <c r="I44">
-        <v>0.78665213821797164</v>
+        <v>0.49581239165521779</v>
       </c>
       <c r="J44">
-        <v>0.49435231326772106</v>
+        <v>0.41392005876090859</v>
       </c>
       <c r="K44">
-        <v>0.41070635688830925</v>
+        <v>0.17269523458807534</v>
       </c>
       <c r="L44">
-        <v>0.12661081730798598</v>
+        <v>0.11383505659373969</v>
       </c>
       <c r="M44">
-        <v>0.10734610610122228</v>
+        <v>8.1282979857769028E-2</v>
       </c>
       <c r="N44">
-        <v>3.6279311312683471E-2</v>
+        <v>4.6211339250504135E-2</v>
       </c>
       <c r="O44">
-        <v>8.6580348155935512E-3</v>
+        <v>3.5533278059688263E-2</v>
       </c>
       <c r="P44">
-        <v>7.6078812526692678E-3</v>
+        <v>2.4288884205595968E-2</v>
       </c>
       <c r="Q44">
-        <v>2.3309212978455188E-3</v>
+        <v>1</v>
       </c>
       <c r="R44">
         <v>2.1987737905052865E-3</v>
@@ -4011,34 +4011,34 @@
         <v>149</v>
       </c>
       <c r="H45">
-        <v>0.99999985503973898</v>
+        <v>0.99999981801571458</v>
       </c>
       <c r="I45">
-        <v>0.99999998060390638</v>
+        <v>0.9999999201363845</v>
       </c>
       <c r="J45">
-        <v>0.99999998863663186</v>
+        <v>0.99999998728286288</v>
       </c>
       <c r="K45">
-        <v>0.99999999813316087</v>
+        <v>0.99999999282222918</v>
       </c>
       <c r="L45">
-        <v>0.99999999922686456</v>
+        <v>0.99999999868642109</v>
       </c>
       <c r="M45">
-        <v>0.99999999979383059</v>
+        <v>0.99999999969130893</v>
       </c>
       <c r="N45">
-        <v>0.99999999990335819</v>
+        <v>0.99999999995185551</v>
       </c>
       <c r="O45">
-        <v>0.99999999994859479</v>
+        <v>0.99999999999307276</v>
       </c>
       <c r="P45">
-        <v>0.99999999999174516</v>
+        <v>0.99999999999876943</v>
       </c>
       <c r="Q45">
-        <v>0.99999999999660638</v>
+        <v>1</v>
       </c>
       <c r="R45">
         <v>0.99999999999937628</v>
@@ -4079,31 +4079,31 @@
         <v>0.99686166838859436</v>
       </c>
       <c r="I46">
-        <v>0.9959746457802805</v>
+        <v>0.9922306675055419</v>
       </c>
       <c r="J46">
-        <v>0.98866306890937594</v>
+        <v>0.99048171709876409</v>
       </c>
       <c r="K46">
-        <v>0.98741925734514513</v>
+        <v>0.97727293353929423</v>
       </c>
       <c r="L46">
-        <v>0.96954829985510926</v>
+        <v>0.97634836961075488</v>
       </c>
       <c r="M46">
-        <v>0.97819635400006144</v>
+        <v>0.97375738775555587</v>
       </c>
       <c r="N46">
-        <v>0.95342744149837566</v>
+        <v>0.96461620339788312</v>
       </c>
       <c r="O46">
-        <v>0.89293811413968394</v>
+        <v>0.96336909402925275</v>
       </c>
       <c r="P46">
-        <v>0.91290597731545164</v>
+        <v>0.95954853618107694</v>
       </c>
       <c r="Q46">
-        <v>0.80822153267325825</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>0.82762062108021905</v>
@@ -4141,34 +4141,34 @@
         <v>151</v>
       </c>
       <c r="H47">
-        <v>0.99999998275587876</v>
+        <v>0.99999998775181853</v>
       </c>
       <c r="I47">
-        <v>0.99999999813912355</v>
+        <v>0.99999999518821447</v>
       </c>
       <c r="J47">
-        <v>0.99999999892265035</v>
+        <v>0.99999999930355732</v>
       </c>
       <c r="K47">
-        <v>0.99999999985058652</v>
+        <v>0.99999999965597419</v>
       </c>
       <c r="L47">
-        <v>0.99999999993341349</v>
+        <v>0.99999999996733935</v>
       </c>
       <c r="M47">
-        <v>0.99999999998097522</v>
+        <v>0.99999999999346789</v>
       </c>
       <c r="N47">
-        <v>0.99999999999131473</v>
+        <v>0.99999999999912303</v>
       </c>
       <c r="O47">
-        <v>0.99999999999468669</v>
+        <v>0.9999999999999315</v>
       </c>
       <c r="P47">
-        <v>0.99999999999919498</v>
+        <v>0.99999999999999134</v>
       </c>
       <c r="Q47">
-        <v>0.99999999999966294</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0.99999999999993461</v>
@@ -4206,7 +4206,7 @@
         <v>152</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0.99999793878394438</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4221,31 +4221,31 @@
         <v>0.99</v>
       </c>
       <c r="I48">
-        <v>0.99897959183673479</v>
+        <v>0.99502249449602764</v>
       </c>
       <c r="J48">
-        <v>0.99950499644216206</v>
+        <v>0.99946748319243828</v>
       </c>
       <c r="K48">
-        <v>0.99989733702819383</v>
+        <v>0.9996885441810236</v>
       </c>
       <c r="L48">
-        <v>0.99994956643223321</v>
+        <v>0.99995820807111169</v>
       </c>
       <c r="M48">
-        <v>0.99998270791795618</v>
+        <v>0.99998918636872269</v>
       </c>
       <c r="N48">
-        <v>0.99999036171656597</v>
+        <v>0.99999846471711695</v>
       </c>
       <c r="O48">
-        <v>0.99999257047344281</v>
+        <v>0.99999982147849231</v>
       </c>
       <c r="P48">
-        <v>0.99999886371231672</v>
+        <v>0.99999997700029297</v>
       </c>
       <c r="Q48">
-        <v>0.99999941226466904</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <v>0.99999991893301676</v>
@@ -4286,31 +4286,31 @@
         <v>0.99999175393499917</v>
       </c>
       <c r="I49">
-        <v>0.99999753946636916</v>
+        <v>0.99999384292527049</v>
       </c>
       <c r="J49">
-        <v>0.99999824247474234</v>
+        <v>0.99999715826378044</v>
       </c>
       <c r="K49">
-        <v>0.99999953315675094</v>
+        <v>0.99999766913651666</v>
       </c>
       <c r="L49">
-        <v>0.99999971989399827</v>
+        <v>0.99999890740638919</v>
       </c>
       <c r="M49">
-        <v>0.99</v>
+        <v>0.9999995984482245</v>
       </c>
       <c r="N49">
-        <v>0.99248120300751874</v>
+        <v>0.99999988018209773</v>
       </c>
       <c r="O49">
-        <v>0.99514731369150766</v>
+        <v>0.9999999709815991</v>
       </c>
       <c r="P49">
-        <v>0.9985975808269264</v>
+        <v>0.99999998948608637</v>
       </c>
       <c r="Q49">
-        <v>0.99895248819127513</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <v>0.99966213238011037</v>
@@ -4348,34 +4348,34 @@
         <v>154</v>
       </c>
       <c r="H50">
-        <v>0.99999974400174574</v>
+        <v>0.99999933152588516</v>
       </c>
       <c r="I50">
-        <v>0.99999995279463838</v>
+        <v>0.99999969657901444</v>
       </c>
       <c r="J50">
-        <v>0.99999997026062171</v>
+        <v>0.9999999271789467</v>
       </c>
       <c r="K50">
-        <v>0.99999999459284028</v>
+        <v>0.99999996055526141</v>
       </c>
       <c r="L50">
-        <v>0.99999999718377086</v>
+        <v>0.99999999325944311</v>
       </c>
       <c r="M50">
-        <v>0.99999999916211368</v>
+        <v>0.99999999799511641</v>
       </c>
       <c r="N50">
-        <v>0.99999999955487295</v>
+        <v>0.99999999961944341</v>
       </c>
       <c r="O50">
-        <v>0.99999999974497922</v>
+        <v>0.99999999993963584</v>
       </c>
       <c r="P50">
-        <v>0.99999999993134059</v>
+        <v>0.99999999998720768</v>
       </c>
       <c r="Q50">
-        <v>0.99999999996719613</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0.99999999999066347</v>
@@ -4419,31 +4419,31 @@
         <v>0.99</v>
       </c>
       <c r="I51">
-        <v>0.99812265331664585</v>
+        <v>0.99309846721771922</v>
       </c>
       <c r="J51">
-        <v>0.9987538438646959</v>
+        <v>0.99861203014799627</v>
       </c>
       <c r="K51">
-        <v>0.99</v>
+        <v>0.99897452597151737</v>
       </c>
       <c r="L51">
-        <v>0.99487488694603565</v>
+        <v>0.99980115000010128</v>
       </c>
       <c r="M51">
-        <v>0.99863349866896156</v>
+        <v>0.99994858241901796</v>
       </c>
       <c r="N51">
-        <v>0.99922472093977766</v>
+        <v>0.99999077672634562</v>
       </c>
       <c r="O51">
-        <v>0.99948301369029835</v>
+        <v>0.99999910741769438</v>
       </c>
       <c r="P51">
-        <v>0.99988465456217213</v>
+        <v>0.99999983158812222</v>
       </c>
       <c r="Q51">
-        <v>0.99992356330185517</v>
+        <v>1</v>
       </c>
       <c r="R51">
         <v>0.99998185210015589</v>
@@ -4481,34 +4481,34 @@
         <v>156</v>
       </c>
       <c r="H52">
-        <v>0.99999935259051909</v>
+        <v>0.99999980600406135</v>
       </c>
       <c r="I52">
-        <v>0.99999986412386666</v>
+        <v>0.99999990023065077</v>
       </c>
       <c r="J52">
-        <v>0.99999993101672768</v>
+        <v>0.9999999868567313</v>
       </c>
       <c r="K52">
-        <v>0.99999998569858917</v>
+        <v>0.99999999209176205</v>
       </c>
       <c r="L52">
-        <v>0.9999999933424466</v>
+        <v>0.99999999873077661</v>
       </c>
       <c r="M52">
-        <v>0.99999999758784297</v>
+        <v>0.99999999961923303</v>
       </c>
       <c r="N52">
-        <v>0.99999999883161139</v>
+        <v>0.99999999991538502</v>
       </c>
       <c r="O52">
-        <v>0.9999999990993671</v>
+        <v>0.99999999998555356</v>
       </c>
       <c r="P52">
-        <v>0.99999999975752196</v>
+        <v>0.99</v>
       </c>
       <c r="Q52">
-        <v>0.99999999986144117</v>
+        <v>1</v>
       </c>
       <c r="R52">
         <v>0.99999999996709232</v>
@@ -4546,34 +4546,34 @@
         <v>157</v>
       </c>
       <c r="H53">
-        <v>0.99999976099671284</v>
+        <v>0.99999980578173875</v>
       </c>
       <c r="I53">
-        <v>0.99999995278946519</v>
+        <v>0.99999989826661573</v>
       </c>
       <c r="J53">
-        <v>0.99999997452129807</v>
+        <v>0.99999997939576868</v>
       </c>
       <c r="K53">
-        <v>0.99999999502854586</v>
+        <v>0.99999998928579958</v>
       </c>
       <c r="L53">
-        <v>0.99999999777141713</v>
+        <v>0.99999999866072498</v>
       </c>
       <c r="M53">
-        <v>0.99999999930945327</v>
+        <v>0.99999999958865127</v>
       </c>
       <c r="N53">
-        <v>0.99999999962642561</v>
+        <v>0.99999999992497413</v>
       </c>
       <c r="O53">
-        <v>0.99999999977010812</v>
+        <v>0.99999999998627576</v>
       </c>
       <c r="P53">
-        <v>0.99999999993256505</v>
+        <v>0.99999999999862754</v>
       </c>
       <c r="Q53">
-        <v>0.99999999996450795</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>0.99999999998911571</v>
@@ -4611,34 +4611,34 @@
         <v>158</v>
       </c>
       <c r="H54">
-        <v>0.99999995408251408</v>
+        <v>0.99999994226205646</v>
       </c>
       <c r="I54">
-        <v>0.999999995375217</v>
+        <v>0.99999997375547944</v>
       </c>
       <c r="J54">
-        <v>0.99999999744673429</v>
+        <v>0.99999999642120163</v>
       </c>
       <c r="K54">
-        <v>0.99999999953222618</v>
+        <v>0.99999999814973695</v>
       </c>
       <c r="L54">
-        <v>0.99999999979880694</v>
+        <v>0.9999999996622535</v>
       </c>
       <c r="M54">
-        <v>0.99999999994251632</v>
+        <v>0.99999999991894084</v>
       </c>
       <c r="N54">
-        <v>0.99999999997438238</v>
+        <v>0.99999999998775668</v>
       </c>
       <c r="O54">
-        <v>0.9999999999864716</v>
+        <v>0.99999999999874889</v>
       </c>
       <c r="P54">
-        <v>0.9999999999977105</v>
+        <v>0.99999999999974365</v>
       </c>
       <c r="Q54">
-        <v>0.99999999999895184</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>0.99999999999976519</v>
@@ -4676,34 +4676,34 @@
         <v>159</v>
       </c>
       <c r="H55">
-        <v>0.99986877450516065</v>
+        <v>0.99987687372855982</v>
       </c>
       <c r="I55">
-        <v>0.99994065898855644</v>
+        <v>0.99989885833896064</v>
       </c>
       <c r="J55">
-        <v>0.999951867306761</v>
+        <v>0.99996603774457871</v>
       </c>
       <c r="K55">
-        <v>0.99998034525718971</v>
+        <v>0.9999652355144667</v>
       </c>
       <c r="L55">
-        <v>0.99998437086448611</v>
+        <v>0.99998203804732932</v>
       </c>
       <c r="M55">
-        <v>0.99999391426083595</v>
+        <v>0.9999924045812747</v>
       </c>
       <c r="N55">
-        <v>0.99999453843580288</v>
+        <v>0.99999617980456224</v>
       </c>
       <c r="O55">
-        <v>0.99999475122290149</v>
+        <v>0.99999877753428423</v>
       </c>
       <c r="P55">
-        <v>0.99999848276970837</v>
+        <v>0.99999952982052476</v>
       </c>
       <c r="Q55">
-        <v>0.99999871456848266</v>
+        <v>1</v>
       </c>
       <c r="R55">
         <v>0.99999955424514797</v>
@@ -4741,34 +4741,34 @@
         <v>160</v>
       </c>
       <c r="H56">
-        <v>0.99999999561122654</v>
+        <v>0.9999999892517123</v>
       </c>
       <c r="I56">
-        <v>0.99999999971377562</v>
+        <v>0.99999999477376822</v>
       </c>
       <c r="J56">
-        <v>0.99999999986122456</v>
+        <v>0.99999999971125797</v>
       </c>
       <c r="K56">
-        <v>0.999999999969161</v>
+        <v>0.99999999981737686</v>
       </c>
       <c r="L56">
-        <v>0.99999999998564393</v>
+        <v>0.99999999997232991</v>
       </c>
       <c r="M56">
-        <v>0.99999999999429978</v>
+        <v>0.99999999999350031</v>
       </c>
       <c r="N56">
-        <v>0.99999999999723899</v>
+        <v>0.99999999999918754</v>
       </c>
       <c r="O56">
-        <v>0.99999999999787181</v>
+        <v>0.99999999999989475</v>
       </c>
       <c r="P56">
-        <v>0.99999999999964539</v>
+        <v>0.99999999999998601</v>
       </c>
       <c r="Q56">
-        <v>0.99999999999982858</v>
+        <v>1</v>
       </c>
       <c r="R56">
         <v>0.99999999999997846</v>
@@ -4812,31 +4812,31 @@
         <v>0.99</v>
       </c>
       <c r="I57">
-        <v>0.99805660148184139</v>
+        <v>0.99415923762680614</v>
       </c>
       <c r="J57">
-        <v>0.99888856085997602</v>
+        <v>0.99875649872582029</v>
       </c>
       <c r="K57">
-        <v>0.99972190840358044</v>
+        <v>0.99934677599573696</v>
       </c>
       <c r="L57">
-        <v>0.99985100312148456</v>
+        <v>0.99986582475688146</v>
       </c>
       <c r="M57">
-        <v>0.99994385103506844</v>
+        <v>0.99994968006402452</v>
       </c>
       <c r="N57">
-        <v>0.99996158160594584</v>
+        <v>0.99998836092513799</v>
       </c>
       <c r="O57">
-        <v>0.99996958519460544</v>
+        <v>0.99999819869688378</v>
       </c>
       <c r="P57">
-        <v>0.99999130986680962</v>
+        <v>0.99999962523170294</v>
       </c>
       <c r="Q57">
-        <v>0.99999436748904325</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <v>0.9999988463480104</v>
@@ -4874,34 +4874,34 @@
         <v>162</v>
       </c>
       <c r="H58">
-        <v>0.9999906419468737</v>
+        <v>0.99998806244445693</v>
       </c>
       <c r="I58">
-        <v>0.99999807527973072</v>
+        <v>0.99999420419468321</v>
       </c>
       <c r="J58">
-        <v>0.99999892071669361</v>
+        <v>0.99999824492510092</v>
       </c>
       <c r="K58">
-        <v>0.99999972427046657</v>
+        <v>0.99999888919238611</v>
       </c>
       <c r="L58">
-        <v>0.99999986896020276</v>
+        <v>0.9999997298033263</v>
       </c>
       <c r="M58">
-        <v>0.99999995184007062</v>
+        <v>0.99</v>
       </c>
       <c r="N58">
-        <v>0.9999999800090853</v>
+        <v>0.99807746412829412</v>
       </c>
       <c r="O58">
-        <v>0.99999998745251084</v>
+        <v>0.99954697258907932</v>
       </c>
       <c r="P58">
-        <v>0.99999999727228495</v>
+        <v>0.99986404866394663</v>
       </c>
       <c r="Q58">
-        <v>0.99999999866579159</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>0.99999999971409814</v>
@@ -4939,34 +4939,34 @@
         <v>163</v>
       </c>
       <c r="H59">
-        <v>0.99999996026838311</v>
+        <v>0.9999999466660594</v>
       </c>
       <c r="I59">
-        <v>0.99999999702688569</v>
+        <v>0.99999997590095946</v>
       </c>
       <c r="J59">
-        <v>0.99999999830107744</v>
+        <v>0.99999999712024035</v>
       </c>
       <c r="K59">
-        <v>0.99999999971477949</v>
+        <v>0.99999999848061749</v>
       </c>
       <c r="L59">
-        <v>0.99999999988207233</v>
+        <v>0.99999999975010156</v>
       </c>
       <c r="M59">
-        <v>0.999999999969019</v>
+        <v>0.9999999999365542</v>
       </c>
       <c r="N59">
-        <v>0.99999999998658551</v>
+        <v>0.99999999999051281</v>
       </c>
       <c r="O59">
-        <v>0.99999999999274536</v>
+        <v>0.99999999999883971</v>
       </c>
       <c r="P59">
-        <v>0.99999999999841305</v>
+        <v>0.9999999999998066</v>
       </c>
       <c r="Q59">
-        <v>0.99999999999931466</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>0.999999999999865</v>
@@ -5004,34 +5004,34 @@
         <v>164</v>
       </c>
       <c r="H60">
-        <v>0.99999997852930655</v>
+        <v>0.99999974631975652</v>
       </c>
       <c r="I60">
-        <v>0.99999999745741786</v>
+        <v>0.99999990096043756</v>
       </c>
       <c r="J60">
-        <v>0.99999999870559453</v>
+        <v>0.9999999759092939</v>
       </c>
       <c r="K60">
-        <v>0.99999999981998333</v>
+        <v>0.9999999875295168</v>
       </c>
       <c r="L60">
-        <v>0.99999999992933919</v>
+        <v>0.99999999705089915</v>
       </c>
       <c r="M60">
-        <v>0.99999999998163935</v>
+        <v>0.99999999926272476</v>
       </c>
       <c r="N60">
-        <v>0.99999999999237854</v>
+        <v>0.99999999988657307</v>
       </c>
       <c r="O60">
-        <v>0.99999999999596068</v>
+        <v>0.99999999998572775</v>
       </c>
       <c r="P60">
-        <v>0.99999999999919209</v>
+        <v>0.99999999999657863</v>
       </c>
       <c r="Q60">
-        <v>0.99999999999968681</v>
+        <v>1</v>
       </c>
       <c r="R60">
         <v>0.99999999999993816</v>
@@ -5069,34 +5069,34 @@
         <v>165</v>
       </c>
       <c r="H61">
-        <v>0.99999891948718156</v>
+        <v>0.99999936770007936</v>
       </c>
       <c r="I61">
-        <v>0.99999980472642613</v>
+        <v>0.99999975471114277</v>
       </c>
       <c r="J61">
-        <v>0.99999989626090446</v>
+        <v>0.9999999449672331</v>
       </c>
       <c r="K61">
-        <v>0.99999997207024138</v>
+        <v>0.99999997355014236</v>
       </c>
       <c r="L61">
-        <v>0.99999998699821568</v>
+        <v>0.99999999542841955</v>
       </c>
       <c r="M61">
-        <v>0.99999999502872949</v>
+        <v>0.99999999856321764</v>
       </c>
       <c r="N61">
-        <v>0.99999999747491031</v>
+        <v>0.99999999966193354</v>
       </c>
       <c r="O61">
-        <v>0.99999999814483209</v>
+        <v>0.99999999993238675</v>
       </c>
       <c r="P61">
-        <v>0.99999999943108187</v>
+        <v>0.99999999998664968</v>
       </c>
       <c r="Q61">
-        <v>0.99999999973450482</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0.99999999993278599</v>
@@ -5134,34 +5134,34 @@
         <v>166</v>
       </c>
       <c r="H62">
-        <v>0.54857079486476823</v>
+        <v>0.41646838318559443</v>
       </c>
       <c r="I62">
-        <v>0.30823062774364807</v>
+        <v>9.3929096753309224E-2</v>
       </c>
       <c r="J62">
-        <v>7.9574117865058136E-2</v>
+        <v>5.6037852352522247E-2</v>
       </c>
       <c r="K62">
-        <v>5.0223585695216941E-2</v>
+        <v>1.0508652170771298E-2</v>
       </c>
       <c r="L62">
-        <v>5.9731275435240851E-3</v>
+        <v>5.6792960926559059E-3</v>
       </c>
       <c r="M62">
-        <v>3.8843237411930118E-3</v>
+        <v>2.9862336644672712E-3</v>
       </c>
       <c r="N62">
-        <v>5.1763035210460691E-4</v>
+        <v>1.2065424498104082E-3</v>
       </c>
       <c r="O62">
-        <v>7.5109397917905984E-5</v>
+        <v>5.981007537333707E-4</v>
       </c>
       <c r="P62">
-        <v>4.9052313597930309E-5</v>
+        <v>3.1170481757974939E-4</v>
       </c>
       <c r="Q62">
-        <v>7.1890020883286217E-6</v>
+        <v>1</v>
       </c>
       <c r="R62">
         <v>4.3697979025080828E-6</v>
@@ -5199,34 +5199,34 @@
         <v>167</v>
       </c>
       <c r="H63">
-        <v>0.99999946216092006</v>
+        <v>0.99999974323004748</v>
       </c>
       <c r="I63">
-        <v>0.99999991409510813</v>
+        <v>0.99999988880039814</v>
       </c>
       <c r="J63">
-        <v>0.99999994995831365</v>
+        <v>0.99999998091349951</v>
       </c>
       <c r="K63">
-        <v>0.99999998692940983</v>
+        <v>0.99999998969328974</v>
       </c>
       <c r="L63">
-        <v>0.99999999398752848</v>
+        <v>0.99999999857060229</v>
       </c>
       <c r="M63">
-        <v>0.99999999773213788</v>
+        <v>0.999999999690941</v>
       </c>
       <c r="N63">
-        <v>0.99999999890043045</v>
+        <v>0.99999999993851185</v>
       </c>
       <c r="O63">
-        <v>0.99999999942244844</v>
+        <v>0.99999999999004074</v>
       </c>
       <c r="P63">
-        <v>0.99999999988281563</v>
+        <v>0.9999999999980993</v>
       </c>
       <c r="Q63">
-        <v>0.999999999951381</v>
+        <v>1</v>
       </c>
       <c r="R63">
         <v>0.99999999999184008</v>
@@ -5267,31 +5267,31 @@
         <v>0.9999998895115062</v>
       </c>
       <c r="I64">
-        <v>0.9999999844277947</v>
+        <v>0.99999993847799473</v>
       </c>
       <c r="J64">
-        <v>0.99999998919479627</v>
+        <v>0.99999999239615622</v>
       </c>
       <c r="K64">
-        <v>0.99999999833208264</v>
+        <v>0.99999999526553118</v>
       </c>
       <c r="L64">
-        <v>0.99999999926226735</v>
+        <v>0.99999999928432448</v>
       </c>
       <c r="M64">
-        <v>0.99999999977021437</v>
+        <v>0.99999999980772902</v>
       </c>
       <c r="N64">
-        <v>0.99999999987930455</v>
+        <v>0.99999999996394917</v>
       </c>
       <c r="O64">
-        <v>0.99999999992707977</v>
+        <v>0.99999999999594136</v>
       </c>
       <c r="P64">
-        <v>0.99999999998414779</v>
+        <v>0.99999999999938649</v>
       </c>
       <c r="Q64">
-        <v>0.99999999999117317</v>
+        <v>1</v>
       </c>
       <c r="R64">
         <v>0.99999999999848854</v>
@@ -5329,34 +5329,34 @@
         <v>169</v>
       </c>
       <c r="H65">
-        <v>0.99996941224082325</v>
+        <v>0.99995500005729332</v>
       </c>
       <c r="I65">
-        <v>0.99998910551505793</v>
+        <v>0.9999766504675851</v>
       </c>
       <c r="J65">
-        <v>0.9999929185577856</v>
+        <v>0.99999301090996573</v>
       </c>
       <c r="K65">
-        <v>0.99999724609388785</v>
+        <v>0.99999604714199519</v>
       </c>
       <c r="L65">
-        <v>0.99999801718607018</v>
+        <v>0.99999884371857439</v>
       </c>
       <c r="M65">
-        <v>0.99999894463031669</v>
+        <v>0.99999961457256104</v>
       </c>
       <c r="N65">
-        <v>0.99999921326966112</v>
+        <v>0.99999988304267673</v>
       </c>
       <c r="O65">
-        <v>0.99999921326966112</v>
+        <v>0.99999995938981523</v>
       </c>
       <c r="P65">
-        <v>0.99999974824615689</v>
+        <v>0.99999998902427401</v>
       </c>
       <c r="Q65">
-        <v>0.99999985164504135</v>
+        <v>1</v>
       </c>
       <c r="R65">
         <v>0.99999994512898271</v>
@@ -5394,34 +5394,34 @@
         <v>170</v>
       </c>
       <c r="H66">
-        <v>0.99999888734513276</v>
+        <v>0.99999758521323978</v>
       </c>
       <c r="I66">
-        <v>0.99999974567866923</v>
+        <v>0.99999877535668547</v>
       </c>
       <c r="J66">
-        <v>0.99999983543912419</v>
+        <v>0.99999961415315264</v>
       </c>
       <c r="K66">
-        <v>0.99999996432595939</v>
+        <v>0.99999975229581684</v>
       </c>
       <c r="L66">
-        <v>0.99999998126211986</v>
+        <v>0.99999994442533291</v>
       </c>
       <c r="M66">
-        <v>0.99999999538759865</v>
+        <v>0.99999998459316086</v>
       </c>
       <c r="N66">
-        <v>0.99999999745847279</v>
+        <v>0.99999999707200338</v>
       </c>
       <c r="O66">
-        <v>0.99999999835071107</v>
+        <v>0.99999999949517293</v>
       </c>
       <c r="P66">
-        <v>0.99999999963217301</v>
+        <v>0.99999999987295751</v>
       </c>
       <c r="Q66">
-        <v>0.99999999983350985</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>0.99999999996623634</v>
@@ -5456,34 +5456,34 @@
         <v>171</v>
       </c>
       <c r="H67">
-        <v>0.98851039883683234</v>
+        <v>0.97728192419879767</v>
       </c>
       <c r="I67">
-        <v>0.98915067752838592</v>
+        <v>0.96280706283709216</v>
       </c>
       <c r="J67">
-        <v>0.98072716584920128</v>
+        <v>0.95964448083555876</v>
       </c>
       <c r="K67">
-        <v>0.9830313848709693</v>
+        <v>0.9438415090257537</v>
       </c>
       <c r="L67">
-        <v>0.97719708959223806</v>
+        <v>0.9438415090257537</v>
       </c>
       <c r="M67">
-        <v>0.98526211038293399</v>
+        <v>0.94757585499770469</v>
       </c>
       <c r="N67">
-        <v>0.97297107582625508</v>
+        <v>0.94757585499770469</v>
       </c>
       <c r="O67">
-        <v>0.9548501631103421</v>
+        <v>0.95638381239725201</v>
       </c>
       <c r="P67">
-        <v>0.96659988581319567</v>
+        <v>0.95206946017017358</v>
       </c>
       <c r="Q67">
-        <v>0.93284628243190404</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>0.95121102238098587</v>
@@ -5521,34 +5521,34 @@
         <v>172</v>
       </c>
       <c r="H68">
-        <v>0.99999872375233845</v>
+        <v>0.99999675213757566</v>
       </c>
       <c r="I68">
-        <v>0.99999969700565594</v>
+        <v>0.99999842181069398</v>
       </c>
       <c r="J68">
-        <v>0.99999980878995576</v>
+        <v>0.99999958468654171</v>
       </c>
       <c r="K68">
-        <v>0.99999996332957486</v>
+        <v>0.9999997205122888</v>
       </c>
       <c r="L68">
-        <v>0.9999999783837491</v>
+        <v>0.9999999416259715</v>
       </c>
       <c r="M68">
-        <v>0.99999999314606658</v>
+        <v>0.99999998596778095</v>
       </c>
       <c r="N68">
-        <v>0.99999999553004337</v>
+        <v>0.99999999710344101</v>
       </c>
       <c r="O68">
-        <v>0.99999999702002895</v>
+        <v>0.99999999963553232</v>
       </c>
       <c r="P68">
-        <v>0.99999999948621188</v>
+        <v>0.99999999991716648</v>
       </c>
       <c r="Q68">
-        <v>0.99999999971712783</v>
+        <v>1</v>
       </c>
       <c r="R68">
         <v>0.99999999993030686</v>
@@ -5586,34 +5586,34 @@
         <v>173</v>
       </c>
       <c r="H69">
-        <v>0.99999942463596336</v>
+        <v>0.99999871041369681</v>
       </c>
       <c r="I69">
-        <v>0.99999990606296918</v>
+        <v>0.99999941565579431</v>
       </c>
       <c r="J69">
-        <v>0.99999995260834262</v>
+        <v>0.99999984356132687</v>
       </c>
       <c r="K69">
-        <v>0.99999998798037626</v>
+        <v>0.99999991135141264</v>
       </c>
       <c r="L69">
-        <v>0.99999999484873259</v>
+        <v>0.9999999851173893</v>
       </c>
       <c r="M69">
-        <v>0.99999999835328335</v>
+        <v>0.99999999713199683</v>
       </c>
       <c r="N69">
-        <v>0.9999999991437073</v>
+        <v>0.99999999960827268</v>
       </c>
       <c r="O69">
-        <v>0.99999999951068996</v>
+        <v>0.99999999993516231</v>
       </c>
       <c r="P69">
-        <v>0.9999999999069622</v>
+        <v>0.99999999998102307</v>
       </c>
       <c r="Q69">
-        <v>0.99999999995886757</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>0.99999999999262446</v>
@@ -5651,34 +5651,34 @@
         <v>174</v>
       </c>
       <c r="H70">
-        <v>0.99999974141230008</v>
+        <v>0.9999998144283091</v>
       </c>
       <c r="I70">
-        <v>0.9999999532672732</v>
+        <v>0.99999990893240243</v>
       </c>
       <c r="J70">
-        <v>0.9999999762741536</v>
+        <v>0.99999998235565168</v>
       </c>
       <c r="K70">
-        <v>0.99999999436511133</v>
+        <v>0.9999999900208193</v>
       </c>
       <c r="L70">
-        <v>0.9999999972797089</v>
+        <v>0.99</v>
       </c>
       <c r="M70">
-        <v>0.99999999872486356</v>
+        <v>0.99754901960784315</v>
       </c>
       <c r="N70">
-        <v>0.99999999925617045</v>
+        <v>0.9996427455008261</v>
       </c>
       <c r="O70">
-        <v>0.99999999947931928</v>
+        <v>0.999917533991458</v>
       </c>
       <c r="P70">
-        <v>0.99999999988284682</v>
+        <v>0.99998676379832663</v>
       </c>
       <c r="Q70">
-        <v>0.99999999994241617</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>0.99999999998720368</v>
@@ -5716,34 +5716,34 @@
         <v>175</v>
       </c>
       <c r="H71">
-        <v>0.999999956029474</v>
+        <v>0.99999984284279431</v>
       </c>
       <c r="I71">
-        <v>0.99999999625057512</v>
+        <v>0.99999993812707844</v>
       </c>
       <c r="J71">
-        <v>0.99999999782010185</v>
+        <v>0.9999999857594063</v>
       </c>
       <c r="K71">
-        <v>0.99999999970353393</v>
+        <v>0.99999999346928181</v>
       </c>
       <c r="L71">
-        <v>0.99999999989007438</v>
+        <v>0.99999999897652925</v>
       </c>
       <c r="M71">
-        <v>0.99999999996410593</v>
+        <v>0.99999999973097331</v>
       </c>
       <c r="N71">
-        <v>0.99999999998613187</v>
+        <v>0.99999999995744993</v>
       </c>
       <c r="O71">
-        <v>0.99999999999306588</v>
+        <v>0.99999999999519595</v>
       </c>
       <c r="P71">
-        <v>0.99999999999861322</v>
+        <v>0.99999999999910616</v>
       </c>
       <c r="Q71">
-        <v>0.99999999999947331</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>0.99999999999990186</v>
@@ -5778,34 +5778,34 @@
         <v>176</v>
       </c>
       <c r="H72">
-        <v>0.99996147264010604</v>
+        <v>0.9990937263996017</v>
       </c>
       <c r="I72">
-        <v>0.99998137101573148</v>
+        <v>0.99874951810826162</v>
       </c>
       <c r="J72">
-        <v>0.99997223252249179</v>
+        <v>0.99910647941123931</v>
       </c>
       <c r="K72">
-        <v>0.99998580754105248</v>
+        <v>0.99872696016119555</v>
       </c>
       <c r="L72">
-        <v>0.99998388317085452</v>
+        <v>0.99909035496817833</v>
       </c>
       <c r="M72">
-        <v>0.99999240464797745</v>
+        <v>0.99937350952243342</v>
       </c>
       <c r="N72">
-        <v>0.99999050582799975</v>
+        <v>0.99955679132093567</v>
       </c>
       <c r="O72">
-        <v>0.99998594138640096</v>
+        <v>0.99979312038132062</v>
       </c>
       <c r="P72">
-        <v>0.9999951717447022</v>
+        <v>0.99983966083206965</v>
       </c>
       <c r="Q72">
-        <v>0.9999935280939618</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>0.99999734310212185</v>
@@ -5843,34 +5843,34 @@
         <v>177</v>
       </c>
       <c r="H73">
-        <v>0.99999999042361787</v>
+        <v>0.9999999248286382</v>
       </c>
       <c r="I73">
-        <v>0.99999999934162376</v>
+        <v>0.99999996477984998</v>
       </c>
       <c r="J73">
-        <v>0.99999999960117603</v>
+        <v>0.99999999610940193</v>
       </c>
       <c r="K73">
-        <v>0.99999999994189315</v>
+        <v>0.9999999976797036</v>
       </c>
       <c r="L73">
-        <v>0.99999999997348532</v>
+        <v>0.9999999994942943</v>
       </c>
       <c r="M73">
-        <v>0.99999999999263478</v>
+        <v>0.99999999987784893</v>
       </c>
       <c r="N73">
-        <v>0.99999999999690248</v>
+        <v>0.99999999998116618</v>
       </c>
       <c r="O73">
-        <v>0.99999999999817979</v>
+        <v>0.99999999999789368</v>
       </c>
       <c r="P73">
-        <v>0.99999999999966904</v>
+        <v>0.99999999999955158</v>
       </c>
       <c r="Q73">
-        <v>0.99999999999985367</v>
+        <v>1</v>
       </c>
       <c r="R73">
         <v>0.99999999999997258</v>
@@ -5905,34 +5905,34 @@
         <v>178</v>
       </c>
       <c r="H74">
-        <v>0.99999757445402726</v>
+        <v>0.9999978688395883</v>
       </c>
       <c r="I74">
-        <v>0.99999949885317352</v>
+        <v>0.99999898516057573</v>
       </c>
       <c r="J74">
-        <v>0.9999996539699948</v>
+        <v>0.99999985904995681</v>
       </c>
       <c r="K74">
-        <v>0.99999991858115367</v>
+        <v>0.9999999142871312</v>
       </c>
       <c r="L74">
-        <v>0.99999996350189491</v>
+        <v>0.99999997824211651</v>
       </c>
       <c r="M74">
-        <v>0.99999998517264455</v>
+        <v>0.99999999253653982</v>
       </c>
       <c r="N74">
-        <v>0.99999999302242093</v>
+        <v>0.99999999846903376</v>
       </c>
       <c r="O74">
-        <v>0.99999999558381081</v>
+        <v>0.99999999973647313</v>
       </c>
       <c r="P74">
-        <v>0.99999999911676207</v>
+        <v>0.99999999996075128</v>
       </c>
       <c r="Q74">
-        <v>0.99999999957000263</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>0.99999999990605093</v>
@@ -5970,34 +5970,34 @@
         <v>179</v>
       </c>
       <c r="H75">
-        <v>0.99998401536431691</v>
+        <v>0.9999748954920552</v>
       </c>
       <c r="I75">
-        <v>0.99999383443712464</v>
+        <v>0.99998529215556198</v>
       </c>
       <c r="J75">
-        <v>0.9999965194309669</v>
+        <v>0.99999599782261295</v>
       </c>
       <c r="K75">
-        <v>0.99999905075149731</v>
+        <v>0.99999680595200413</v>
       </c>
       <c r="L75">
-        <v>0.99999941584686203</v>
+        <v>0.99999920684523769</v>
       </c>
       <c r="M75">
-        <v>0.99999978523773758</v>
+        <v>0.99999973755894678</v>
       </c>
       <c r="N75">
-        <v>0.99999984771402262</v>
+        <v>0.99999991126092347</v>
       </c>
       <c r="O75">
-        <v>0.99999988578551269</v>
+        <v>0.99999997633624482</v>
       </c>
       <c r="P75">
-        <v>0.99999996088544663</v>
+        <v>0.99999999560096853</v>
       </c>
       <c r="Q75">
-        <v>0.99999997490764458</v>
+        <v>1</v>
       </c>
       <c r="R75">
         <v>0.99999999230501091</v>
@@ -6035,34 +6035,34 @@
         <v>180</v>
       </c>
       <c r="H76">
-        <v>0.99999765137122687</v>
+        <v>0.99999723537805929</v>
       </c>
       <c r="I76">
-        <v>0.99999946316959343</v>
+        <v>0.99999827742607283</v>
       </c>
       <c r="J76">
-        <v>0.99999958748816264</v>
+        <v>0.99999971812386035</v>
       </c>
       <c r="K76">
-        <v>0.99999991057432802</v>
+        <v>0.99999978532610445</v>
       </c>
       <c r="L76">
-        <v>0.9999999457737927</v>
+        <v>0.99999994842249718</v>
       </c>
       <c r="M76">
-        <v>0.99999998280632385</v>
+        <v>0.99999998760156128</v>
       </c>
       <c r="N76">
-        <v>0.99999998968379422</v>
+        <v>0.99999999744068924</v>
       </c>
       <c r="O76">
-        <v>0.99999999172304421</v>
+        <v>0.99999999957929142</v>
       </c>
       <c r="P76">
-        <v>0.9999999988964059</v>
+        <v>0.99999999991100397</v>
       </c>
       <c r="Q76">
-        <v>0.99999999931187666</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>0.99999999990430077</v>
@@ -6100,34 +6100,34 @@
         <v>181</v>
       </c>
       <c r="H77">
-        <v>0.99999969766594943</v>
+        <v>0.99999968403357509</v>
       </c>
       <c r="I77">
-        <v>0.9999999277027104</v>
+        <v>0.99999982446307256</v>
       </c>
       <c r="J77">
-        <v>0.99999994385423152</v>
+        <v>0.99999997431166532</v>
       </c>
       <c r="K77">
-        <v>0.99999998822116687</v>
+        <v>0.99999998215161146</v>
       </c>
       <c r="L77">
-        <v>0.99999999298282272</v>
+        <v>0.9999999965894798</v>
       </c>
       <c r="M77">
-        <v>0.9999999980507841</v>
+        <v>0.99999999920143923</v>
       </c>
       <c r="N77">
-        <v>0.99999999878435997</v>
+        <v>0.99999999986630428</v>
       </c>
       <c r="O77">
-        <v>0.99999999898696657</v>
+        <v>0.99999999997569167</v>
       </c>
       <c r="P77">
-        <v>0.99999999987924104</v>
+        <v>0.99999999999602507</v>
       </c>
       <c r="Q77">
-        <v>0.99999999992380684</v>
+        <v>1</v>
       </c>
       <c r="R77">
         <v>0.99999999998633771</v>
@@ -6165,34 +6165,34 @@
         <v>182</v>
       </c>
       <c r="H78">
-        <v>0.98276439209756128</v>
+        <v>0.95213526796832482</v>
       </c>
       <c r="I78">
-        <v>0.97177279855230603</v>
+        <v>0.83829315982835306</v>
       </c>
       <c r="J78">
-        <v>0.90804055989731558</v>
+        <v>0.79338938799302872</v>
       </c>
       <c r="K78">
-        <v>0.88893119534857323</v>
+        <v>0.55506513508553756</v>
       </c>
       <c r="L78">
-        <v>0.72203721221939998</v>
+        <v>0.48569837396631765</v>
       </c>
       <c r="M78">
-        <v>0.72702700115850583</v>
+        <v>0.40119845285555711</v>
       </c>
       <c r="N78">
-        <v>0.43840472296479954</v>
+        <v>0.27747008827791436</v>
       </c>
       <c r="O78">
-        <v>0.18801265249900223</v>
+        <v>0.24083612891671755</v>
       </c>
       <c r="P78">
-        <v>0.19167470989357896</v>
+        <v>0.20876188826330508</v>
       </c>
       <c r="Q78">
-        <v>5.7415664973577613E-2</v>
+        <v>1</v>
       </c>
       <c r="R78">
         <v>5.1363823094128389E-2</v>
@@ -6230,31 +6230,31 @@
         <v>0.99999976292465698</v>
       </c>
       <c r="I79">
-        <v>0.99999996176203376</v>
+        <v>0.99999987158417525</v>
       </c>
       <c r="J79">
-        <v>0.9999999729536333</v>
+        <v>0.99999997993502521</v>
       </c>
       <c r="K79">
-        <v>0.99999999463543121</v>
+        <v>0.9999999858364883</v>
       </c>
       <c r="L79">
-        <v>0.99999999715214249</v>
+        <v>0.99999999721373534</v>
       </c>
       <c r="M79">
-        <v>0.99999999917052695</v>
+        <v>0.99999999938083006</v>
       </c>
       <c r="N79">
-        <v>0.99999999959014274</v>
+        <v>0.99999999989428801</v>
       </c>
       <c r="O79">
-        <v>0.99999999974578468</v>
+        <v>0.99999999998646882</v>
       </c>
       <c r="P79">
-        <v>0.99999999996073097</v>
+        <v>0.9999999999978858</v>
       </c>
       <c r="Q79">
-        <v>0.99999999997872935</v>
+        <v>0</v>
       </c>
       <c r="R79">
         <v>0.99999999999592315</v>
@@ -6292,34 +6292,34 @@
         <v>184</v>
       </c>
       <c r="H80">
-        <v>0.99999998973265347</v>
+        <v>0.99999998780521993</v>
       </c>
       <c r="I80">
-        <v>0.99999999857209088</v>
+        <v>0.99999999372587389</v>
       </c>
       <c r="J80">
-        <v>0.99999999909889226</v>
+        <v>0.99999999925308025</v>
       </c>
       <c r="K80">
-        <v>0.99999999986957644</v>
+        <v>0.99999999956804642</v>
       </c>
       <c r="L80">
-        <v>0.99999999993922006</v>
+        <v>0.99999999992710775</v>
       </c>
       <c r="M80">
-        <v>0.99999999998007205</v>
+        <v>0.99999999998472733</v>
       </c>
       <c r="N80">
-        <v>0.99999999998993738</v>
+        <v>0.99999999999777001</v>
       </c>
       <c r="O80">
-        <v>0.9999999999932917</v>
+        <v>0.99999999999979994</v>
       </c>
       <c r="P80">
-        <v>0.99999999999884337</v>
+        <v>0.99999999999997014</v>
       </c>
       <c r="Q80">
-        <v>0.9999999999994027</v>
+        <v>1</v>
       </c>
       <c r="R80">
         <v>0.99999999999989364</v>
@@ -6357,37 +6357,37 @@
         <v>185</v>
       </c>
       <c r="G81">
-        <v>0.66666666666666663</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H81">
-        <v>0.66666666666666663</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I81">
-        <v>0.64031620553359681</v>
+        <v>0.670886075949367</v>
       </c>
       <c r="J81">
-        <v>0.3047890535917902</v>
+        <v>0.66856991103439112</v>
       </c>
       <c r="K81">
-        <v>0.32221167098166265</v>
+        <v>0.44917995839926367</v>
       </c>
       <c r="L81">
-        <v>0.14312239680784167</v>
+        <v>0.40786330837840701</v>
       </c>
       <c r="M81">
-        <v>0.17272286828662536</v>
+        <v>0.39659117153493367</v>
       </c>
       <c r="N81">
-        <v>7.6747463605801106E-2</v>
+        <v>0.34305592040637756</v>
       </c>
       <c r="O81">
-        <v>2.2168490370995601E-2</v>
+        <v>0.3674677383424636</v>
       </c>
       <c r="P81">
-        <v>2.6373134098595197E-2</v>
+        <v>0.37242715285398809</v>
       </c>
       <c r="Q81">
-        <v>8.8622683393604195E-3</v>
+        <v>1</v>
       </c>
       <c r="R81">
         <v>1.0068561071146963E-2</v>
@@ -6425,7 +6425,7 @@
         <v>186</v>
       </c>
       <c r="D82">
-        <v>0.99999896939091004</v>
+        <v>0.98969072164948457</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6440,31 +6440,31 @@
         <v>0.99</v>
       </c>
       <c r="I82">
-        <v>0.99791026429010454</v>
+        <v>0.99409332545776741</v>
       </c>
       <c r="J82">
-        <v>0.99852186766368145</v>
+        <v>0.99890088149304257</v>
       </c>
       <c r="K82">
-        <v>0.99960665188030329</v>
+        <v>0.99932546424230517</v>
       </c>
       <c r="L82">
-        <v>0.99975504877411181</v>
+        <v>0.99987918286498967</v>
       </c>
       <c r="M82">
-        <v>0.9999125036413925</v>
+        <v>0.99995884885669617</v>
       </c>
       <c r="N82">
-        <v>0.99993477398906472</v>
+        <v>0.99998937123459553</v>
       </c>
       <c r="O82">
-        <v>0.99993773862314994</v>
+        <v>0.99999790047287695</v>
       </c>
       <c r="P82">
-        <v>0.99998799720362153</v>
+        <v>0.99999961946005478</v>
       </c>
       <c r="Q82">
-        <v>0.99999105671259092</v>
+        <v>1</v>
       </c>
       <c r="R82">
         <v>0.99999854410510236</v>
@@ -6502,46 +6502,46 @@
         <v>187</v>
       </c>
       <c r="D83">
-        <v>0.99999998958979652</v>
+        <v>0.99984219662300777</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="G83">
-        <v>0.99</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="H83">
-        <v>0.99</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="I83">
-        <v>0.99617346938775508</v>
+        <v>0.97793822703569988</v>
       </c>
       <c r="J83">
-        <v>0.99757312555881972</v>
+        <v>0.99405948079862183</v>
       </c>
       <c r="K83">
-        <v>0.9989931493957982</v>
+        <v>0.99670706339743798</v>
       </c>
       <c r="L83">
-        <v>0.99942174519068616</v>
+        <v>0.99933132016937676</v>
       </c>
       <c r="M83">
-        <v>0.99968709057268801</v>
+        <v>0.99977700731598551</v>
       </c>
       <c r="N83">
-        <v>0.9998003627474743</v>
+        <v>0.99993627765484105</v>
       </c>
       <c r="O83">
-        <v>0.99982639786857086</v>
+        <v>0.9999763307523204</v>
       </c>
       <c r="P83">
-        <v>0.99994675560431223</v>
+        <v>0.99999514467835859</v>
       </c>
       <c r="Q83">
-        <v>0.99996805268218114</v>
+        <v>1</v>
       </c>
       <c r="R83">
         <v>0.99998740081398774</v>
@@ -6582,31 +6582,31 @@
         <v>0.99999998730810602</v>
       </c>
       <c r="I84">
-        <v>0.9999999983815705</v>
+        <v>0.99999999276857199</v>
       </c>
       <c r="J84">
-        <v>0.99999999896420511</v>
+        <v>0.99999999897909253</v>
       </c>
       <c r="K84">
-        <v>0.99999999989976174</v>
+        <v>0.99999999935211648</v>
       </c>
       <c r="L84">
-        <v>0.99999999995620659</v>
+        <v>0.99999999985048837</v>
       </c>
       <c r="M84">
-        <v>0.99999999998939371</v>
+        <v>0.9999999999648207</v>
       </c>
       <c r="N84">
-        <v>0.99999999999425482</v>
+        <v>0.99999999999417721</v>
       </c>
       <c r="O84">
-        <v>0.99999999999655276</v>
+        <v>0.99</v>
       </c>
       <c r="P84">
-        <v>0.99999999999947331</v>
+        <v>0.99827840629611408</v>
       </c>
       <c r="Q84">
-        <v>0.99999999999969991</v>
+        <v>1</v>
       </c>
       <c r="R84">
         <v>0.99999999999994504</v>
@@ -6650,31 +6650,31 @@
         <v>0.99</v>
       </c>
       <c r="I85">
-        <v>0.99866390540450267</v>
+        <v>0.99533731604254694</v>
       </c>
       <c r="J85">
-        <v>0.99930721408907774</v>
+        <v>0.9987893870965433</v>
       </c>
       <c r="K85">
-        <v>0.99988290793580992</v>
+        <v>0.99931960335371195</v>
       </c>
       <c r="L85">
-        <v>0.99995337672584106</v>
+        <v>0.99988948301063396</v>
       </c>
       <c r="M85">
-        <v>0.99998619905786357</v>
+        <v>0.99997713241161701</v>
       </c>
       <c r="N85">
-        <v>0.99999337008809674</v>
+        <v>0.99999723122288731</v>
       </c>
       <c r="O85">
-        <v>0.99999652092635616</v>
+        <v>0.99999960976874058</v>
       </c>
       <c r="P85">
-        <v>0.99999936743935502</v>
+        <v>0.99999990721771492</v>
       </c>
       <c r="Q85">
-        <v>0.99999972325461939</v>
+        <v>1</v>
       </c>
       <c r="R85">
         <v>0.99999995481707027</v>
@@ -6712,31 +6712,31 @@
         <v>0.99999997333232438</v>
       </c>
       <c r="I86">
-        <v>0.99999999739338508</v>
+        <v>0.99999998771883347</v>
       </c>
       <c r="J86">
-        <v>0.99999999840048626</v>
+        <v>0.99999999785566929</v>
       </c>
       <c r="K86">
-        <v>0.99999999976257226</v>
+        <v>0.99999999875490475</v>
       </c>
       <c r="L86">
-        <v>0.99999999988956845</v>
+        <v>0.99999999973022935</v>
       </c>
       <c r="M86">
-        <v>0.99999999996569111</v>
+        <v>0.99999999994649169</v>
       </c>
       <c r="N86">
-        <v>0.99999999998589528</v>
+        <v>0.99999999999199485</v>
       </c>
       <c r="O86">
-        <v>0.99999999999107292</v>
+        <v>0.99999999999919942</v>
       </c>
       <c r="P86">
-        <v>0.99999999999839018</v>
+        <v>0.99999999999986022</v>
       </c>
       <c r="Q86">
-        <v>0.99999999999925859</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>0.99999999999985301</v>
@@ -6774,34 +6774,34 @@
         <v>191</v>
       </c>
       <c r="H87">
-        <v>0.67530747248482215</v>
+        <v>0.47575099585599245</v>
       </c>
       <c r="I87">
-        <v>0.51412973656150252</v>
+        <v>0.17956483601612205</v>
       </c>
       <c r="J87">
-        <v>0.27297950823512102</v>
+        <v>0.13270638639521692</v>
       </c>
       <c r="K87">
-        <v>0.21345582101570265</v>
+        <v>0.01</v>
       </c>
       <c r="L87">
-        <v>6.551456559084487E-2</v>
+        <v>5.680414917263522E-3</v>
       </c>
       <c r="M87">
-        <v>5.4377114342919516E-2</v>
+        <v>3.6027117454668503E-3</v>
       </c>
       <c r="N87">
-        <v>1.9460299874139157E-2</v>
+        <v>1.9093252760110776E-3</v>
       </c>
       <c r="O87">
-        <v>5.1367990909465724E-3</v>
+        <v>1.2125331036599827E-3</v>
       </c>
       <c r="P87">
-        <v>4.0597580531634946E-3</v>
+        <v>7.2992752746189665E-4</v>
       </c>
       <c r="Q87">
-        <v>1.0833470982593003E-3</v>
+        <v>1</v>
       </c>
       <c r="R87">
         <v>8.9911338823731772E-4</v>
@@ -6839,34 +6839,34 @@
         <v>192</v>
       </c>
       <c r="H88">
-        <v>0.99771642341465905</v>
+        <v>0.99446538913246463</v>
       </c>
       <c r="I88">
-        <v>0.99789515047350186</v>
+        <v>0.98812150224691853</v>
       </c>
       <c r="J88">
-        <v>0.99566843497497648</v>
+        <v>0.98975115170873573</v>
       </c>
       <c r="K88">
-        <v>0.99680467820679242</v>
+        <v>0.97363186624244002</v>
       </c>
       <c r="L88">
-        <v>0.99415746735569088</v>
+        <v>0.97163917532939337</v>
       </c>
       <c r="M88">
-        <v>0.99711654594355414</v>
+        <v>0.97223859899121912</v>
       </c>
       <c r="N88">
-        <v>0.99548737609578042</v>
+        <v>0.96852994407171744</v>
       </c>
       <c r="O88">
-        <v>0.99085632267104318</v>
+        <v>0.97324194073428028</v>
       </c>
       <c r="P88">
-        <v>0.99222577056289263</v>
+        <v>0.97487229640200745</v>
       </c>
       <c r="Q88">
-        <v>0.980637742301814</v>
+        <v>0</v>
       </c>
       <c r="R88">
         <v>0.98506542404590958</v>
@@ -6901,34 +6901,34 @@
         <v>193</v>
       </c>
       <c r="H89">
-        <v>0.99999999994837463</v>
+        <v>0.99999999996857281</v>
       </c>
       <c r="I89">
-        <v>0.99999999999836109</v>
+        <v>0.99999999999153888</v>
       </c>
       <c r="J89">
-        <v>0.99999999999925859</v>
+        <v>0.99999999999955458</v>
       </c>
       <c r="K89">
-        <v>0.99999999999992462</v>
+        <v>0.99999999999986988</v>
       </c>
       <c r="L89">
-        <v>0.9999999999999879</v>
+        <v>0.99999999999998557</v>
       </c>
       <c r="M89">
-        <v>0.99999999999999678</v>
+        <v>0.99999999999999867</v>
       </c>
       <c r="N89">
-        <v>0.99999999999999933</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O89">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89">
         <v>1</v>
@@ -6966,34 +6966,34 @@
         <v>194</v>
       </c>
       <c r="H90">
-        <v>0.99999997898257942</v>
+        <v>0.99999993711046486</v>
       </c>
       <c r="I90">
-        <v>0.9999999979660561</v>
+        <v>0.99999997097405968</v>
       </c>
       <c r="J90">
-        <v>0.99999999884871094</v>
+        <v>0.99999999694463781</v>
       </c>
       <c r="K90">
-        <v>0.99999999983114429</v>
+        <v>0.9999999981442893</v>
       </c>
       <c r="L90">
-        <v>0.99999999992763333</v>
+        <v>0.99999999966153708</v>
       </c>
       <c r="M90">
-        <v>0.99999999997989819</v>
+        <v>0.99999999993673594</v>
       </c>
       <c r="N90">
-        <v>0.99999999999082745</v>
+        <v>0.99999999999202316</v>
       </c>
       <c r="O90">
-        <v>0.99999999999485212</v>
+        <v>0.99999999999927947</v>
       </c>
       <c r="P90">
-        <v>0.99999999999910005</v>
+        <v>0.99999999999987232</v>
       </c>
       <c r="Q90">
-        <v>0.99999999999957423</v>
+        <v>1</v>
       </c>
       <c r="R90">
         <v>0.99999999999994327</v>
@@ -7031,34 +7031,34 @@
         <v>195</v>
       </c>
       <c r="H91">
-        <v>0.999999982395811</v>
+        <v>0.99999996689686621</v>
       </c>
       <c r="I91">
-        <v>0.99999999865445688</v>
+        <v>0.99999998702715009</v>
       </c>
       <c r="J91">
-        <v>0.99999999925106564</v>
+        <v>0.99999999814673579</v>
       </c>
       <c r="K91">
-        <v>0.99999999985957488</v>
+        <v>0.99999999910532078</v>
       </c>
       <c r="L91">
-        <v>0.99999999994435984</v>
+        <v>0.99999999986495403</v>
       </c>
       <c r="M91">
-        <v>0.99999999998339772</v>
+        <v>0.99999999996453337</v>
       </c>
       <c r="N91">
-        <v>0.99999999999326505</v>
+        <v>0.99999999999454359</v>
       </c>
       <c r="O91">
-        <v>0.99999999999659916</v>
+        <v>0.99999999999938161</v>
       </c>
       <c r="P91">
-        <v>0.99999999999925526</v>
+        <v>0.99999999999990097</v>
       </c>
       <c r="Q91">
-        <v>0.99999999999971412</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>0.99999999999994071</v>
@@ -7096,34 +7096,34 @@
         <v>196</v>
       </c>
       <c r="H92">
-        <v>0.99999990210015399</v>
+        <v>0.99999996461568286</v>
       </c>
       <c r="I92">
-        <v>0.99999999048195864</v>
+        <v>0.9999999853407826</v>
       </c>
       <c r="J92">
-        <v>0.99999999440692411</v>
+        <v>0.99999999829125685</v>
       </c>
       <c r="K92">
-        <v>0.99999999886456348</v>
+        <v>0.99999999916621563</v>
       </c>
       <c r="L92">
-        <v>0.99999999951829965</v>
+        <v>0.99999999984741195</v>
       </c>
       <c r="M92">
-        <v>0.99999999983656596</v>
+        <v>0.99999999996064837</v>
       </c>
       <c r="N92">
-        <v>0.9999999999250927</v>
+        <v>0.99999999999510369</v>
       </c>
       <c r="O92">
-        <v>0.99999999996254629</v>
+        <v>0.99999999999940548</v>
       </c>
       <c r="P92">
-        <v>0.99999999999180689</v>
+        <v>0.99999999999988187</v>
       </c>
       <c r="Q92">
-        <v>0.99999999999661593</v>
+        <v>1</v>
       </c>
       <c r="R92">
         <v>0.99999999999939393</v>
@@ -7158,34 +7158,34 @@
         <v>197</v>
       </c>
       <c r="H93">
-        <v>0.97465996048630055</v>
+        <v>0.97752315517886157</v>
       </c>
       <c r="I93">
-        <v>0.97008655923185516</v>
+        <v>0.92402671768666544</v>
       </c>
       <c r="J93">
-        <v>0.9083334270334652</v>
+        <v>0.91834777277711743</v>
       </c>
       <c r="K93">
-        <v>0.87343345088800273</v>
+        <v>0.81755992328534943</v>
       </c>
       <c r="L93">
-        <v>0.70720369334313238</v>
+        <v>0.76125577642691789</v>
       </c>
       <c r="M93">
-        <v>0.7548757135392471</v>
+        <v>0.73734939378812392</v>
       </c>
       <c r="N93">
-        <v>0.551936245875982</v>
+        <v>0.65069333765623871</v>
       </c>
       <c r="O93">
-        <v>0.31475152792092498</v>
+        <v>0.63066642986810395</v>
       </c>
       <c r="P93">
-        <v>0.30564531128795941</v>
+        <v>0.57046839320785703</v>
       </c>
       <c r="Q93">
-        <v>0.12620720415025896</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0.12854728098464344</v>
@@ -7223,34 +7223,34 @@
         <v>198</v>
       </c>
       <c r="H94">
-        <v>0.99999985363769672</v>
+        <v>0.9999998750596516</v>
       </c>
       <c r="I94">
-        <v>0.99999998438801896</v>
+        <v>0.99999994771999223</v>
       </c>
       <c r="J94">
-        <v>0.99999999057098166</v>
+        <v>0.99999999140131413</v>
       </c>
       <c r="K94">
-        <v>0.99999999803279471</v>
+        <v>0.99999999590538768</v>
       </c>
       <c r="L94">
-        <v>0.999999999112829</v>
+        <v>0.99999999922534366</v>
       </c>
       <c r="M94">
-        <v>0.99999999970427622</v>
+        <v>0.99999999979614296</v>
       </c>
       <c r="N94">
-        <v>0.99999999985960586</v>
+        <v>0.99999999996826761</v>
       </c>
       <c r="O94">
-        <v>0.99999999992693778</v>
+        <v>0.99999999999584199</v>
       </c>
       <c r="P94">
-        <v>0.99999999998297051</v>
+        <v>0.99999999999906297</v>
       </c>
       <c r="Q94">
-        <v>0.99999999999357048</v>
+        <v>1</v>
       </c>
       <c r="R94">
         <v>0.99999999999858169</v>
@@ -7288,34 +7288,34 @@
         <v>199</v>
       </c>
       <c r="H95">
-        <v>0.17535058075722912</v>
+        <v>0.21430823788688541</v>
       </c>
       <c r="I95">
-        <v>7.035911222223043E-2</v>
+        <v>2.3046698734808288E-2</v>
       </c>
       <c r="J95">
-        <v>1.5593855443102872E-2</v>
+        <v>1.2543181903903768E-2</v>
       </c>
       <c r="K95">
-        <v>8.5260145264990563E-3</v>
+        <v>2.8897709229940079E-3</v>
       </c>
       <c r="L95">
-        <v>1.2456777916145505E-3</v>
+        <v>1.2735601725243004E-3</v>
       </c>
       <c r="M95">
-        <v>6.8101287784279796E-4</v>
+        <v>6.529085448562981E-4</v>
       </c>
       <c r="N95">
-        <v>1.3977060963796703E-4</v>
+        <v>2.3429355808648398E-4</v>
       </c>
       <c r="O95">
-        <v>2.7090380082161819E-5</v>
+        <v>1.1495018257745488E-4</v>
       </c>
       <c r="P95">
-        <v>1.7496038335637497E-5</v>
+        <v>5.7478394864719407E-5</v>
       </c>
       <c r="Q95">
-        <v>1.3232511907783969E-6</v>
+        <v>1</v>
       </c>
       <c r="R95">
         <v>7.524373811210597E-7</v>
@@ -7359,40 +7359,40 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.88888888888888884</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="G96">
-        <v>0.11111111111111116</v>
+        <v>0.11538461538461542</v>
       </c>
       <c r="H96">
-        <v>0.11111111111111116</v>
+        <v>0.11538461538461542</v>
       </c>
       <c r="I96">
-        <v>3.6688617121354669E-2</v>
+        <v>1.9294902334444988E-2</v>
       </c>
       <c r="J96">
-        <v>8.1150311040316912E-3</v>
+        <v>8.0704182487464204E-3</v>
       </c>
       <c r="K96">
-        <v>4.1464952187662647E-3</v>
+        <v>2.1490398677312754E-3</v>
       </c>
       <c r="L96">
-        <v>4.7293080229412739E-4</v>
+        <v>8.736577244711233E-4</v>
       </c>
       <c r="M96">
-        <v>3.4304932875021114E-4</v>
+        <v>3.5357359441531155E-4</v>
       </c>
       <c r="N96">
-        <v>5.5861283152936576E-5</v>
+        <v>1.1361049264534607E-4</v>
       </c>
       <c r="O96">
-        <v>9.5271718974390257E-6</v>
+        <v>4.6612555970790375E-5</v>
       </c>
       <c r="P96">
-        <v>5.4441204558529066E-6</v>
+        <v>2.1121852846517206E-5</v>
       </c>
       <c r="Q96">
-        <v>7.2588615235048494E-7</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>3.8625147830672203E-7</v>
@@ -7430,34 +7430,34 @@
         <v>201</v>
       </c>
       <c r="H97">
-        <v>0.34824942765478789</v>
+        <v>0.20959515420258171</v>
       </c>
       <c r="I97">
-        <v>0.1552693349163782</v>
+        <v>2.6100073375522542E-2</v>
       </c>
       <c r="J97">
-        <v>3.6206688445341223E-2</v>
+        <v>1.2808203606450633E-2</v>
       </c>
       <c r="K97">
-        <v>2.007956393172905E-2</v>
+        <v>2.7811296262345709E-3</v>
       </c>
       <c r="L97">
-        <v>2.9858983013899419E-3</v>
+        <v>1.2213257327184954E-3</v>
       </c>
       <c r="M97">
-        <v>1.9615090581688501E-3</v>
+        <v>6.0742260189924294E-4</v>
       </c>
       <c r="N97">
-        <v>4.3836008441763217E-4</v>
+        <v>2.099781932613175E-4</v>
       </c>
       <c r="O97">
-        <v>7.4211040171030698E-5</v>
+        <v>9.3131647092927663E-5</v>
       </c>
       <c r="P97">
-        <v>4.4242522966511209E-5</v>
+        <v>4.5065866429929277E-5</v>
       </c>
       <c r="Q97">
-        <v>4.281705581817573E-6</v>
+        <v>1</v>
       </c>
       <c r="R97">
         <v>2.3787298499079303E-6</v>
@@ -7495,34 +7495,34 @@
         <v>202</v>
       </c>
       <c r="H98">
-        <v>0.99831766788679244</v>
+        <v>0.99690570094591491</v>
       </c>
       <c r="I98">
-        <v>0.99816840115295702</v>
+        <v>0.99157283734677015</v>
       </c>
       <c r="J98">
-        <v>0.99610068337465496</v>
+        <v>0.99226967217370965</v>
       </c>
       <c r="K98">
-        <v>0.99633854293250779</v>
+        <v>0.98205550465372093</v>
       </c>
       <c r="L98">
-        <v>0.99183540511772472</v>
+        <v>0.98023586624612336</v>
       </c>
       <c r="M98">
-        <v>0.99569344139103144</v>
+        <v>0.98066657792199019</v>
       </c>
       <c r="N98">
-        <v>0.99128212633013224</v>
+        <v>0.97600742643396066</v>
       </c>
       <c r="O98">
-        <v>0.98068080661578205</v>
+        <v>0.97600742643396066</v>
       </c>
       <c r="P98">
-        <v>0.9829596050195718</v>
+        <v>0.97726802724242046</v>
       </c>
       <c r="Q98">
-        <v>0.9553550202892126</v>
+        <v>0</v>
       </c>
       <c r="R98">
         <v>0.95797351261784291</v>
@@ -7560,34 +7560,34 @@
         <v>203</v>
       </c>
       <c r="H99">
-        <v>0.68774256251039589</v>
+        <v>0.55452478156915341</v>
       </c>
       <c r="I99">
-        <v>0.48070357444415468</v>
+        <v>9.1117182231372468E-2</v>
       </c>
       <c r="J99">
-        <v>0.11438982851765174</v>
+        <v>5.524925480939008E-2</v>
       </c>
       <c r="K99">
-        <v>7.1565868394976959E-2</v>
+        <v>1.2585286158334581E-2</v>
       </c>
       <c r="L99">
-        <v>7.8438675740467433E-3</v>
+        <v>5.8932931423430783E-3</v>
       </c>
       <c r="M99">
-        <v>6.9091067593781974E-3</v>
+        <v>3.3329837792100058E-3</v>
       </c>
       <c r="N99">
-        <v>9.1022930917452531E-4</v>
+        <v>1.2770050031152499E-3</v>
       </c>
       <c r="O99">
-        <v>1.924401247543575E-4</v>
+        <v>7.6659457991471488E-4</v>
       </c>
       <c r="P99">
-        <v>1.2721448286167781E-4</v>
+        <v>3.8037787582913539E-4</v>
       </c>
       <c r="Q99">
-        <v>1.099512205803055E-5</v>
+        <v>1</v>
       </c>
       <c r="R99">
         <v>7.4543464337076453E-6</v>
@@ -7625,34 +7625,34 @@
         <v>204</v>
       </c>
       <c r="H100">
-        <v>0.68044923909885324</v>
+        <v>0.51093378790397681</v>
       </c>
       <c r="I100">
-        <v>0.47012770631549505</v>
+        <v>0.01</v>
       </c>
       <c r="J100">
-        <v>0.16095925376157469</v>
+        <v>5.3080568720379143E-3</v>
       </c>
       <c r="K100">
-        <v>0.11278385418116298</v>
+        <v>1.2853556785177654E-3</v>
       </c>
       <c r="L100">
-        <v>1.9002729130306973E-2</v>
+        <v>6.3118956140022914E-4</v>
       </c>
       <c r="M100">
-        <v>1.4257339602484024E-2</v>
+        <v>3.0654665461055721E-4</v>
       </c>
       <c r="N100">
-        <v>2.6961785139701512E-3</v>
+        <v>1.1855366301640637E-4</v>
       </c>
       <c r="O100">
-        <v>5.0333361941671954E-4</v>
+        <v>6.7551462806025007E-5</v>
       </c>
       <c r="P100">
-        <v>3.614190359367813E-4</v>
+        <v>3.4741892206409039E-5</v>
       </c>
       <c r="Q100">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="R100">
         <v>6.0705113238384316E-3</v>
@@ -7690,46 +7690,46 @@
         <v>205</v>
       </c>
       <c r="D101">
-        <v>0.99999793878394438</v>
+        <v>0.99999896939091004</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0.6</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G101">
-        <v>0.4</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="H101">
-        <v>0.4</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I101">
-        <v>0.33333333333333337</v>
+        <v>9.7856477166821984E-2</v>
       </c>
       <c r="J101">
-        <v>0.18072289156626511</v>
+        <v>7.4569789674952189E-2</v>
       </c>
       <c r="K101">
-        <v>0.16623437868427263</v>
+        <v>2.487244897959184E-2</v>
       </c>
       <c r="L101">
-        <v>6.509203535366255E-2</v>
+        <v>1.7176731064528807E-2</v>
       </c>
       <c r="M101">
-        <v>9.3055905540156261E-2</v>
+        <v>1.4734142887564283E-2</v>
       </c>
       <c r="N101">
-        <v>4.2522162972223485E-2</v>
+        <v>7.9209317766912937E-3</v>
       </c>
       <c r="O101">
-        <v>1.6207876003391658E-2</v>
+        <v>6.436035100890399E-3</v>
       </c>
       <c r="P101">
-        <v>1.5569655004765306E-2</v>
+        <v>4.7114202684799414E-3</v>
       </c>
       <c r="Q101">
-        <v>4.9327705332750243E-3</v>
+        <v>1</v>
       </c>
       <c r="R101">
         <v>4.4605813497142661E-3</v>
@@ -7761,34 +7761,34 @@
         <v>206</v>
       </c>
       <c r="H102">
-        <v>77.777777777777786</v>
+        <v>80</v>
       </c>
       <c r="I102">
-        <v>82.222222222222214</v>
+        <v>87.777777777777771</v>
       </c>
       <c r="J102">
-        <v>88.888888888888886</v>
+        <v>87.777777777777771</v>
       </c>
       <c r="K102">
-        <v>88.888888888888886</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="L102">
-        <v>93.333333333333329</v>
+        <v>94.444444444444443</v>
       </c>
       <c r="M102">
-        <v>93.333333333333329</v>
+        <v>94.444444444444443</v>
       </c>
       <c r="N102">
-        <v>95.555555555555557</v>
+        <v>94.444444444444443</v>
       </c>
       <c r="O102">
-        <v>95.555555555555557</v>
+        <v>94.444444444444443</v>
       </c>
       <c r="P102">
-        <v>95.555555555555557</v>
+        <v>94.444444444444443</v>
       </c>
       <c r="Q102">
-        <v>95.555555555555557</v>
+        <v>94.444444444444443</v>
       </c>
       <c r="R102">
         <v>95.555555555555557</v>
